--- a/nodes_source_analyses/energy/energy_power_turbine_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_turbine_network_gas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -562,9 +570,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <r>
@@ -821,6 +826,10 @@
   <si>
     <t>energy_power_turbine_network_gas.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +841,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -984,11 +993,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1661,7 +1665,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1672,49 +1676,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1801,13 +1805,13 @@
     </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1818,12 +1822,12 @@
     <xf numFmtId="165" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1834,7 +1838,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1878,7 +1882,7 @@
     <xf numFmtId="165" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1911,31 +1915,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2179,80 +2183,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3886200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2599,7 +2538,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3036,45 +2975,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="4.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>102</v>
@@ -3083,7 +3022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -3092,29 +3031,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="118"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="119" t="s">
         <v>105</v>
@@ -3123,33 +3062,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="119"/>
       <c r="C12" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="119" t="s">
         <v>110</v>
@@ -3158,49 +3097,49 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
         <v>118</v>
@@ -3209,50 +3148,45 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="172" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="C2" s="173"/>
       <c r="D2" s="173"/>
@@ -3261,7 +3195,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="175"/>
       <c r="C3" s="176"/>
       <c r="D3" s="176"/>
@@ -3270,7 +3204,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="175"/>
       <c r="C4" s="176"/>
       <c r="D4" s="176"/>
@@ -3279,7 +3213,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="178"/>
       <c r="C5" s="179"/>
       <c r="D5" s="179"/>
@@ -3288,10 +3222,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3302,7 +3236,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="145"/>
       <c r="C8" s="15" t="s">
         <v>33</v>
@@ -3323,7 +3257,7 @@
       </c>
       <c r="J8" s="147"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -3334,7 +3268,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>119</v>
@@ -3347,7 +3281,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -3367,7 +3301,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="33" t="s">
         <v>66</v>
@@ -3386,7 +3320,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3406,7 +3340,7 @@
       <c r="J13" s="148"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -3426,7 +3360,7 @@
       <c r="J14" s="148"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>39</v>
@@ -3446,7 +3380,7 @@
       <c r="J15" s="148"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>11</v>
@@ -3466,7 +3400,7 @@
       <c r="J16" s="148"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3486,7 +3420,7 @@
       <c r="J17" s="148"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3506,7 +3440,7 @@
       <c r="J18" s="148"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3528,7 +3462,7 @@
       </c>
       <c r="J19" s="148"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>45</v>
@@ -3549,7 +3483,7 @@
       </c>
       <c r="J20" s="148"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
       <c r="C21" s="32"/>
       <c r="D21" s="149"/>
@@ -3560,7 +3494,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="148"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="14" t="s">
         <v>132</v>
@@ -3573,7 +3507,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="148"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>46</v>
@@ -3591,11 +3525,11 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>47</v>
@@ -3616,7 +3550,7 @@
       </c>
       <c r="J24" s="148"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>13</v>
@@ -3637,7 +3571,7 @@
       </c>
       <c r="J25" s="148"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -3658,7 +3592,7 @@
       </c>
       <c r="J26" s="148"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3680,7 +3614,7 @@
       </c>
       <c r="J27" s="148"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -3702,7 +3636,7 @@
       </c>
       <c r="J28" s="148"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>51</v>
@@ -3723,7 +3657,7 @@
       </c>
       <c r="J29" s="148"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>54</v>
@@ -3744,7 +3678,7 @@
       </c>
       <c r="J30" s="148"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>41</v>
@@ -3763,7 +3697,7 @@
       </c>
       <c r="J31" s="148"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="33"/>
       <c r="D32" s="19"/>
@@ -3774,7 +3708,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="148"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="14" t="s">
         <v>8</v>
@@ -3787,7 +3721,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="148"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>40</v>
@@ -3809,7 +3743,7 @@
       </c>
       <c r="J34" s="148"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>52</v>
@@ -3827,11 +3761,11 @@
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J35" s="148"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>53</v>
@@ -3853,7 +3787,7 @@
       </c>
       <c r="J36" s="148"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>38</v>
@@ -3872,7 +3806,7 @@
       </c>
       <c r="J37" s="148"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>67</v>
@@ -3889,7 +3823,7 @@
       </c>
       <c r="J38" s="148"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>68</v>
@@ -3906,7 +3840,7 @@
       </c>
       <c r="J39" s="148"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>70</v>
@@ -3923,7 +3857,7 @@
       </c>
       <c r="J40" s="148"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="45" t="s">
         <v>71</v>
@@ -3940,7 +3874,7 @@
       </c>
       <c r="J41" s="148"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="45" t="s">
         <v>69</v>
@@ -3957,7 +3891,7 @@
       </c>
       <c r="J42" s="148"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -3974,43 +3908,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3886200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4025,39 +3922,39 @@
       <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="71" customWidth="1"/>
-    <col min="10" max="11" width="8.375" style="72" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="72" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="72" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="72" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="72" customWidth="1"/>
-    <col min="16" max="16" width="3.25" style="72" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="72" customWidth="1"/>
-    <col min="18" max="18" width="3.125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="71" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="71" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="72" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="72" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="71" customWidth="1"/>
     <col min="20" max="20" width="3" style="71" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="71" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="71" customWidth="1"/>
     <col min="22" max="22" width="3" style="71" customWidth="1"/>
-    <col min="23" max="23" width="8.5" style="72" customWidth="1"/>
-    <col min="24" max="24" width="2.5" style="72" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="72" customWidth="1"/>
-    <col min="26" max="26" width="2.75" style="72" customWidth="1"/>
-    <col min="27" max="27" width="72.5" style="71" customWidth="1"/>
-    <col min="28" max="16384" width="10.625" style="71"/>
+    <col min="23" max="23" width="8.42578125" style="72" customWidth="1"/>
+    <col min="24" max="24" width="2.42578125" style="72" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="72" customWidth="1"/>
+    <col min="26" max="26" width="2.7109375" style="72" customWidth="1"/>
+    <col min="27" max="27" width="72.42578125" style="71" customWidth="1"/>
+    <col min="28" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="16" thickBot="1"/>
-    <row r="2" spans="2:27">
+    <row r="1" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -4085,7 +3982,7 @@
       <c r="Z2" s="75"/>
       <c r="AA2" s="74"/>
     </row>
-    <row r="3" spans="2:27" s="21" customFormat="1">
+    <row r="3" spans="2:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="132" t="s">
         <v>120</v>
@@ -4118,11 +4015,11 @@
       </c>
       <c r="R3" s="132"/>
       <c r="S3" s="132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T3" s="132"/>
       <c r="U3" s="132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V3" s="132"/>
       <c r="W3" s="68" t="s">
@@ -4134,10 +4031,10 @@
       </c>
       <c r="Z3" s="68"/>
       <c r="AA3" s="132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -4165,7 +4062,7 @@
       <c r="Z4" s="139"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="2:27" ht="16" thickBot="1">
+    <row r="5" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
         <v>119</v>
@@ -4195,7 +4092,7 @@
       <c r="Z5" s="10"/>
       <c r="AA5" s="70"/>
     </row>
-    <row r="6" spans="2:27" ht="16" thickBot="1">
+    <row r="6" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="116" t="s">
         <v>30</v>
@@ -4244,10 +4141,10 @@
         <v>45</v>
       </c>
       <c r="AA6" s="171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="16" thickBot="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="76"/>
       <c r="C7" s="79" t="s">
         <v>79</v>
@@ -4295,7 +4192,7 @@
       <c r="Y7" s="84"/>
       <c r="AA7" s="70"/>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
@@ -4322,7 +4219,7 @@
       <c r="Y8" s="84"/>
       <c r="AA8" s="142"/>
     </row>
-    <row r="9" spans="2:27" ht="16" thickBot="1">
+    <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -4354,7 +4251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="16" thickBot="1">
+    <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="143" t="s">
         <v>131</v>
@@ -4393,7 +4290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="16" thickBot="1">
+    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="76"/>
       <c r="C11" s="92" t="s">
         <v>1</v>
@@ -4433,7 +4330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="16" thickBot="1">
+    <row r="12" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="76"/>
       <c r="C12" s="94" t="s">
         <v>6</v>
@@ -4471,7 +4368,7 @@
       <c r="Z12" s="78"/>
       <c r="AA12" s="70"/>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" s="76"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4499,7 +4396,7 @@
       <c r="Z13" s="84"/>
       <c r="AA13" s="70"/>
     </row>
-    <row r="14" spans="2:27" ht="16" thickBot="1">
+    <row r="14" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="13" t="s">
         <v>121</v>
@@ -4529,7 +4426,7 @@
       <c r="Z14" s="84"/>
       <c r="AA14" s="70"/>
     </row>
-    <row r="15" spans="2:27" ht="16" thickBot="1">
+    <row r="15" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="133" t="s">
         <v>122</v>
@@ -4564,7 +4461,7 @@
       <c r="Z15" s="84"/>
       <c r="AA15" s="70"/>
     </row>
-    <row r="16" spans="2:27" ht="16" thickBot="1">
+    <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="97" t="s">
         <v>9</v>
@@ -4602,7 +4499,7 @@
       <c r="Z16" s="84"/>
       <c r="AA16" s="113"/>
     </row>
-    <row r="17" spans="2:27" ht="16" thickBot="1">
+    <row r="17" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76"/>
       <c r="C17" s="85" t="s">
         <v>129</v>
@@ -4637,7 +4534,7 @@
       <c r="Z17" s="87"/>
       <c r="AA17" s="70"/>
     </row>
-    <row r="18" spans="2:27" ht="16" thickBot="1">
+    <row r="18" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="85" t="s">
         <v>129</v>
@@ -4677,10 +4574,10 @@
       <c r="Y18" s="98"/>
       <c r="Z18" s="87"/>
       <c r="AA18" s="158" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="16" thickBot="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="85" t="s">
         <v>61</v>
@@ -4717,7 +4614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="16" thickBot="1">
+    <row r="20" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="76"/>
       <c r="C20" s="85" t="s">
         <v>61</v>
@@ -4757,10 +4654,10 @@
       <c r="Y20" s="87"/>
       <c r="Z20" s="87"/>
       <c r="AA20" s="158" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="16" thickBot="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="76"/>
       <c r="C21" s="143" t="s">
         <v>130</v>
@@ -4793,13 +4690,13 @@
       <c r="Y21" s="84"/>
       <c r="Z21" s="84"/>
       <c r="AA21" s="158" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="16" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="76"/>
       <c r="C22" s="154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -4837,11 +4734,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4856,22 +4748,21 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="46" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="130.25" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="2" width="4.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="130.28515625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4883,7 +4774,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
@@ -4897,7 +4788,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4909,7 +4800,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>31</v>
@@ -4925,19 +4816,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>65</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4949,7 +4840,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
@@ -4967,13 +4858,13 @@
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K7" s="106" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="67" t="s">
         <v>29</v>
@@ -4987,7 +4878,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="111"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="67" t="s">
         <v>78</v>
@@ -5001,7 +4892,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="114"/>
       <c r="D10" s="64"/>
@@ -5013,12 +4904,12 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>75</v>
@@ -5031,13 +4922,13 @@
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="114" t="s">
         <v>29</v>
@@ -5050,7 +4941,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="114" t="s">
         <v>78</v>
@@ -5063,12 +4954,12 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="62" t="s">
@@ -5079,13 +4970,13 @@
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K14" s="59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="114" t="s">
         <v>29</v>
@@ -5098,7 +4989,7 @@
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="114" t="s">
         <v>78</v>
@@ -5111,7 +5002,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="114"/>
       <c r="D17" s="64"/>
@@ -5122,7 +5013,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -5140,13 +5031,13 @@
       </c>
       <c r="I18" s="62"/>
       <c r="J18" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K18" s="59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="114" t="s">
         <v>29</v>
@@ -5159,7 +5050,7 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="114" t="s">
         <v>78</v>
@@ -5172,7 +5063,7 @@
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="114"/>
       <c r="D21" s="64"/>
@@ -5183,7 +5074,7 @@
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -5201,13 +5092,13 @@
       </c>
       <c r="I22" s="55"/>
       <c r="J22" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" s="63" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="51"/>
       <c r="C23" s="65" t="s">
         <v>89</v>
@@ -5221,7 +5112,7 @@
       <c r="J23" s="55"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="51"/>
       <c r="C24" s="65" t="s">
         <v>90</v>
@@ -5235,7 +5126,7 @@
       <c r="J24" s="55"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="51"/>
       <c r="C25" s="65" t="s">
         <v>93</v>
@@ -5249,7 +5140,7 @@
       <c r="J25" s="55"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="51"/>
       <c r="C26" s="65"/>
       <c r="D26" s="59"/>
@@ -5261,12 +5152,12 @@
       <c r="J26" s="55"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="51"/>
       <c r="C27" s="60"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="54" t="s">
         <v>80</v>
@@ -5279,13 +5170,13 @@
       </c>
       <c r="I27" s="54"/>
       <c r="J27" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K27" s="63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="51"/>
       <c r="C28" s="67" t="s">
         <v>1</v>
@@ -5299,7 +5190,7 @@
       <c r="J28" s="55"/>
       <c r="K28" s="59"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="51"/>
       <c r="C29" s="65"/>
       <c r="D29" s="59"/>
@@ -5311,12 +5202,12 @@
       <c r="J29" s="66"/>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="59" t="s">
         <v>80</v>
@@ -5329,16 +5220,16 @@
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="51"/>
       <c r="C31" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="54"/>
@@ -5349,10 +5240,10 @@
       <c r="J31" s="66"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="51"/>
       <c r="C32" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="54"/>
@@ -5363,7 +5254,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="65" t="s">
         <v>90</v>
@@ -5377,7 +5268,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
       <c r="C34" s="65"/>
       <c r="D34" s="59"/>
@@ -5389,7 +5280,7 @@
       <c r="J34" s="66"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="51"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -5409,7 +5300,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="51"/>
       <c r="C36" s="59" t="s">
         <v>94</v>
@@ -5435,11 +5326,6 @@
   <ignoredErrors>
     <ignoredError sqref="G22:H22 G7 G11 G18:H18 H11 G14:H14 H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5451,21 +5337,21 @@
       <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="156" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="156" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="156"/>
+    <col min="1" max="1" width="6.28515625" style="156" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="156" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15" s="21" customFormat="1">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="164"/>
       <c r="C2" s="165" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="165"/>
       <c r="F2" s="165"/>
@@ -5479,7 +5365,7 @@
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="159"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
@@ -5495,10 +5381,10 @@
       <c r="N3" s="160"/>
       <c r="O3" s="161"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="159"/>
       <c r="C4" s="160" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="160"/>
       <c r="E4" s="160"/>
@@ -5513,10 +5399,10 @@
       <c r="N4" s="160"/>
       <c r="O4" s="161"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="159"/>
       <c r="C5" s="160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
@@ -5531,7 +5417,7 @@
       <c r="N5" s="160"/>
       <c r="O5" s="161"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="159"/>
       <c r="C6" s="160"/>
       <c r="D6" s="160"/>
@@ -5547,7 +5433,7 @@
       <c r="N6" s="160"/>
       <c r="O6" s="161"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="159"/>
       <c r="C7" s="160"/>
       <c r="D7" s="160"/>
@@ -5563,7 +5449,7 @@
       <c r="N7" s="160"/>
       <c r="O7" s="161"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="159"/>
       <c r="C8" s="160"/>
       <c r="D8" s="160"/>
@@ -5579,7 +5465,7 @@
       <c r="N8" s="160"/>
       <c r="O8" s="161"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="159"/>
       <c r="C9" s="160"/>
       <c r="D9" s="160"/>
@@ -5595,7 +5481,7 @@
       <c r="N9" s="160"/>
       <c r="O9" s="161"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="159"/>
       <c r="C10" s="160"/>
       <c r="D10" s="160"/>
@@ -5611,7 +5497,7 @@
       <c r="N10" s="160"/>
       <c r="O10" s="161"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="159"/>
       <c r="C11" s="160"/>
       <c r="D11" s="160">
@@ -5631,7 +5517,7 @@
       <c r="N11" s="160"/>
       <c r="O11" s="161"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="159"/>
       <c r="C12" s="160"/>
       <c r="D12" s="162">
@@ -5651,7 +5537,7 @@
       <c r="N12" s="160"/>
       <c r="O12" s="161"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="159"/>
       <c r="C13" s="160"/>
       <c r="D13" s="160"/>
@@ -5667,7 +5553,7 @@
       <c r="N13" s="160"/>
       <c r="O13" s="161"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="159"/>
       <c r="C14" s="160"/>
       <c r="D14" s="160"/>
@@ -5683,7 +5569,7 @@
       <c r="N14" s="160"/>
       <c r="O14" s="161"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="159"/>
       <c r="C15" s="160"/>
       <c r="D15" s="160"/>
@@ -5699,7 +5585,7 @@
       <c r="N15" s="160"/>
       <c r="O15" s="161"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="159"/>
       <c r="C16" s="160"/>
       <c r="D16" s="160"/>
@@ -5715,7 +5601,7 @@
       <c r="N16" s="160"/>
       <c r="O16" s="161"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="159"/>
       <c r="C17" s="160"/>
       <c r="D17" s="160"/>
@@ -5731,7 +5617,7 @@
       <c r="N17" s="160"/>
       <c r="O17" s="161"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="159"/>
       <c r="C18" s="160"/>
       <c r="D18" s="160"/>
@@ -5747,7 +5633,7 @@
       <c r="N18" s="160"/>
       <c r="O18" s="161"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="159"/>
       <c r="C19" s="160"/>
       <c r="D19" s="160"/>
@@ -5763,7 +5649,7 @@
       <c r="N19" s="160"/>
       <c r="O19" s="161"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="159"/>
       <c r="C20" s="160"/>
       <c r="D20" s="160"/>
@@ -5779,7 +5665,7 @@
       <c r="N20" s="160"/>
       <c r="O20" s="161"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="159"/>
       <c r="C21" s="160"/>
       <c r="D21" s="160"/>
@@ -5795,7 +5681,7 @@
       <c r="N21" s="160"/>
       <c r="O21" s="161"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="159"/>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
@@ -5811,7 +5697,7 @@
       <c r="N22" s="160"/>
       <c r="O22" s="161"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="159"/>
       <c r="C23" s="160"/>
       <c r="D23" s="160"/>
@@ -5827,7 +5713,7 @@
       <c r="N23" s="160"/>
       <c r="O23" s="161"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="159"/>
       <c r="C24" s="160"/>
       <c r="D24" s="160"/>
@@ -5843,7 +5729,7 @@
       <c r="N24" s="160"/>
       <c r="O24" s="161"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="159"/>
       <c r="C25" s="160"/>
       <c r="D25" s="160"/>
@@ -5859,7 +5745,7 @@
       <c r="N25" s="160"/>
       <c r="O25" s="161"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="159"/>
       <c r="C26" s="160"/>
       <c r="D26" s="160"/>
@@ -5875,7 +5761,7 @@
       <c r="N26" s="160"/>
       <c r="O26" s="161"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="159"/>
       <c r="C27" s="160"/>
       <c r="D27" s="160"/>
@@ -5891,7 +5777,7 @@
       <c r="N27" s="160"/>
       <c r="O27" s="161"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="159"/>
       <c r="C28" s="160"/>
       <c r="D28" s="160"/>
@@ -5907,10 +5793,10 @@
       <c r="N28" s="160"/>
       <c r="O28" s="161"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="159"/>
       <c r="C29" s="160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="160"/>
       <c r="E29" s="160"/>
@@ -5925,10 +5811,10 @@
       <c r="N29" s="160"/>
       <c r="O29" s="161"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="159"/>
       <c r="C30" s="160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="160"/>
       <c r="E30" s="160"/>
@@ -5943,7 +5829,7 @@
       <c r="N30" s="160"/>
       <c r="O30" s="161"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="159"/>
       <c r="C31" s="160"/>
       <c r="D31" s="160"/>
@@ -5959,7 +5845,7 @@
       <c r="N31" s="160"/>
       <c r="O31" s="161"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="159"/>
       <c r="C32" s="160"/>
       <c r="D32" s="160"/>
@@ -5975,7 +5861,7 @@
       <c r="N32" s="160"/>
       <c r="O32" s="161"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="159"/>
       <c r="C33" s="160"/>
       <c r="D33" s="160"/>
@@ -5991,7 +5877,7 @@
       <c r="N33" s="160"/>
       <c r="O33" s="161"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="159"/>
       <c r="C34" s="160"/>
       <c r="D34" s="160"/>
@@ -6007,7 +5893,7 @@
       <c r="N34" s="160"/>
       <c r="O34" s="161"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="159"/>
       <c r="C35" s="160"/>
       <c r="D35" s="160"/>
@@ -6023,7 +5909,7 @@
       <c r="N35" s="160"/>
       <c r="O35" s="161"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="159"/>
       <c r="C36" s="160"/>
       <c r="D36" s="160"/>
@@ -6039,7 +5925,7 @@
       <c r="N36" s="160"/>
       <c r="O36" s="161"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="159"/>
       <c r="C37" s="160"/>
       <c r="D37" s="160"/>
@@ -6055,7 +5941,7 @@
       <c r="N37" s="160"/>
       <c r="O37" s="161"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="159"/>
       <c r="C38" s="160"/>
       <c r="D38" s="160">
@@ -6075,7 +5961,7 @@
       <c r="N38" s="160"/>
       <c r="O38" s="161"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="159"/>
       <c r="C39" s="160"/>
       <c r="D39" s="160">
@@ -6095,7 +5981,7 @@
       <c r="N39" s="160"/>
       <c r="O39" s="161"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="159"/>
       <c r="C40" s="160"/>
       <c r="D40" s="160"/>
@@ -6111,7 +5997,7 @@
       <c r="N40" s="160"/>
       <c r="O40" s="161"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="159"/>
       <c r="C41" s="160"/>
       <c r="D41" s="160"/>
@@ -6127,7 +6013,7 @@
       <c r="N41" s="160"/>
       <c r="O41" s="161"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="159"/>
       <c r="C42" s="160"/>
       <c r="D42" s="160"/>
@@ -6143,7 +6029,7 @@
       <c r="N42" s="160"/>
       <c r="O42" s="161"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="159"/>
       <c r="C43" s="160"/>
       <c r="D43" s="160"/>
@@ -6159,7 +6045,7 @@
       <c r="N43" s="160"/>
       <c r="O43" s="161"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="159"/>
       <c r="C44" s="160"/>
       <c r="D44" s="160"/>
@@ -6175,7 +6061,7 @@
       <c r="N44" s="160"/>
       <c r="O44" s="161"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="159"/>
       <c r="C45" s="160"/>
       <c r="D45" s="160"/>
@@ -6191,7 +6077,7 @@
       <c r="N45" s="160"/>
       <c r="O45" s="161"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
       <c r="D46" s="160"/>
@@ -6207,7 +6093,7 @@
       <c r="N46" s="160"/>
       <c r="O46" s="161"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="159"/>
       <c r="C47" s="160"/>
       <c r="D47" s="160"/>
@@ -6223,7 +6109,7 @@
       <c r="N47" s="160"/>
       <c r="O47" s="161"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="159"/>
       <c r="C48" s="160"/>
       <c r="D48" s="160"/>
@@ -6239,7 +6125,7 @@
       <c r="N48" s="160"/>
       <c r="O48" s="161"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="159"/>
       <c r="C49" s="160" t="s">
         <v>92</v>
@@ -6257,10 +6143,10 @@
       <c r="N49" s="160"/>
       <c r="O49" s="161"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="159"/>
       <c r="C50" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="160"/>
       <c r="E50" s="160"/>
@@ -6275,7 +6161,7 @@
       <c r="N50" s="160"/>
       <c r="O50" s="161"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="159"/>
       <c r="C51" s="160"/>
       <c r="D51" s="160">
@@ -6295,7 +6181,7 @@
       <c r="N51" s="160"/>
       <c r="O51" s="161"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="159"/>
       <c r="C52" s="160"/>
       <c r="D52" s="160">
@@ -6315,7 +6201,7 @@
       <c r="N52" s="160"/>
       <c r="O52" s="161"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="159"/>
       <c r="C53" s="160"/>
       <c r="D53" s="160"/>
@@ -6331,7 +6217,7 @@
       <c r="N53" s="160"/>
       <c r="O53" s="161"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
       <c r="D54" s="160"/>
@@ -6347,7 +6233,7 @@
       <c r="N54" s="160"/>
       <c r="O54" s="161"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
       <c r="D55" s="160"/>
@@ -6363,7 +6249,7 @@
       <c r="N55" s="160"/>
       <c r="O55" s="161"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="159"/>
       <c r="C56" s="160"/>
       <c r="D56" s="160"/>
@@ -6379,7 +6265,7 @@
       <c r="N56" s="160"/>
       <c r="O56" s="161"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="159"/>
       <c r="C57" s="160"/>
       <c r="D57" s="160"/>
@@ -6395,7 +6281,7 @@
       <c r="N57" s="160"/>
       <c r="O57" s="161"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="159"/>
       <c r="C58" s="160"/>
       <c r="D58" s="160"/>
@@ -6411,7 +6297,7 @@
       <c r="N58" s="160"/>
       <c r="O58" s="161"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="159"/>
       <c r="C59" s="160"/>
       <c r="D59" s="160"/>
@@ -6427,7 +6313,7 @@
       <c r="N59" s="160"/>
       <c r="O59" s="161"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="159"/>
       <c r="C60" s="160"/>
       <c r="D60" s="160"/>
@@ -6443,7 +6329,7 @@
       <c r="N60" s="160"/>
       <c r="O60" s="161"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
       <c r="D61" s="160"/>
@@ -6459,7 +6345,7 @@
       <c r="N61" s="160"/>
       <c r="O61" s="161"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="159"/>
       <c r="C62" s="160"/>
       <c r="D62" s="160"/>
@@ -6475,7 +6361,7 @@
       <c r="N62" s="160"/>
       <c r="O62" s="161"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="159"/>
       <c r="C63" s="160" t="s">
         <v>99</v>
@@ -6493,10 +6379,10 @@
       <c r="N63" s="160"/>
       <c r="O63" s="161"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="159"/>
       <c r="C64" s="160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D64" s="160"/>
       <c r="E64" s="160"/>
@@ -6511,7 +6397,7 @@
       <c r="N64" s="160"/>
       <c r="O64" s="161"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="159"/>
       <c r="C65" s="160"/>
       <c r="D65" s="160"/>
@@ -6527,7 +6413,7 @@
       <c r="N65" s="160"/>
       <c r="O65" s="161"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="159"/>
       <c r="C66" s="160"/>
       <c r="D66" s="160">
@@ -6547,7 +6433,7 @@
       <c r="N66" s="160"/>
       <c r="O66" s="161"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="159"/>
       <c r="C67" s="160"/>
       <c r="D67" s="160">
@@ -6567,7 +6453,7 @@
       <c r="N67" s="160"/>
       <c r="O67" s="161"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="159"/>
       <c r="C68" s="160"/>
       <c r="D68" s="160"/>
@@ -6583,7 +6469,7 @@
       <c r="N68" s="160"/>
       <c r="O68" s="161"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="159"/>
       <c r="C69" s="160"/>
       <c r="D69" s="160"/>
@@ -6599,7 +6485,7 @@
       <c r="N69" s="160"/>
       <c r="O69" s="161"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="159"/>
       <c r="C70" s="160"/>
       <c r="D70" s="160"/>
@@ -6615,7 +6501,7 @@
       <c r="N70" s="160"/>
       <c r="O70" s="161"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
       <c r="D71" s="160"/>
@@ -6631,7 +6517,7 @@
       <c r="N71" s="160"/>
       <c r="O71" s="161"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="159"/>
       <c r="C72" s="160"/>
       <c r="D72" s="160"/>
@@ -6647,7 +6533,7 @@
       <c r="N72" s="160"/>
       <c r="O72" s="161"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="159"/>
       <c r="C73" s="160"/>
       <c r="D73" s="160"/>
@@ -6663,7 +6549,7 @@
       <c r="N73" s="160"/>
       <c r="O73" s="161"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="159"/>
       <c r="C74" s="160"/>
       <c r="D74" s="160"/>
@@ -6679,7 +6565,7 @@
       <c r="N74" s="160"/>
       <c r="O74" s="161"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="159"/>
       <c r="C75" s="160"/>
       <c r="D75" s="160"/>
@@ -6695,7 +6581,7 @@
       <c r="N75" s="160"/>
       <c r="O75" s="161"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="159"/>
       <c r="C76" s="160"/>
       <c r="D76" s="160"/>
@@ -6711,7 +6597,7 @@
       <c r="N76" s="160"/>
       <c r="O76" s="161"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="159"/>
       <c r="C77" s="160"/>
       <c r="D77" s="160"/>
@@ -6727,7 +6613,7 @@
       <c r="N77" s="160"/>
       <c r="O77" s="161"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="159"/>
       <c r="C78" s="160"/>
       <c r="D78" s="160"/>
@@ -6743,7 +6629,7 @@
       <c r="N78" s="160"/>
       <c r="O78" s="161"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="159"/>
       <c r="C79" s="160"/>
       <c r="D79" s="160"/>
@@ -6759,7 +6645,7 @@
       <c r="N79" s="160"/>
       <c r="O79" s="161"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="159"/>
       <c r="C80" s="160"/>
       <c r="D80" s="160"/>
@@ -6775,7 +6661,7 @@
       <c r="N80" s="160"/>
       <c r="O80" s="161"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="159"/>
       <c r="C81" s="160"/>
       <c r="D81" s="160"/>
@@ -6791,7 +6677,7 @@
       <c r="N81" s="160"/>
       <c r="O81" s="161"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="159"/>
       <c r="C82" s="160"/>
       <c r="D82" s="160"/>
@@ -6807,7 +6693,7 @@
       <c r="N82" s="160"/>
       <c r="O82" s="161"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="159"/>
       <c r="C83" s="160"/>
       <c r="D83" s="160"/>
@@ -6823,7 +6709,7 @@
       <c r="N83" s="160"/>
       <c r="O83" s="161"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="159"/>
       <c r="C84" s="160" t="s">
         <v>82</v>
@@ -6841,10 +6727,10 @@
       <c r="N84" s="160"/>
       <c r="O84" s="161"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="159"/>
       <c r="C85" s="160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="160"/>
       <c r="E85" s="160"/>
@@ -6859,7 +6745,7 @@
       <c r="N85" s="160"/>
       <c r="O85" s="161"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="159"/>
       <c r="C86" s="160"/>
       <c r="D86" s="160"/>
@@ -6875,14 +6761,14 @@
       <c r="N86" s="160"/>
       <c r="O86" s="161"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="159"/>
       <c r="C87" s="160"/>
       <c r="D87" s="160">
         <v>450</v>
       </c>
       <c r="E87" s="160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F87" s="160"/>
       <c r="G87" s="160"/>
@@ -6895,7 +6781,7 @@
       <c r="N87" s="160"/>
       <c r="O87" s="161"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="159"/>
       <c r="C88" s="160"/>
       <c r="D88" s="160"/>
@@ -6911,7 +6797,7 @@
       <c r="N88" s="160"/>
       <c r="O88" s="161"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="159"/>
       <c r="C89" s="160"/>
       <c r="D89" s="160"/>
@@ -6927,7 +6813,7 @@
       <c r="N89" s="160"/>
       <c r="O89" s="161"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="159"/>
       <c r="C90" s="160"/>
       <c r="D90" s="160"/>
@@ -6943,7 +6829,7 @@
       <c r="N90" s="160"/>
       <c r="O90" s="161"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="159"/>
       <c r="C91" s="160"/>
       <c r="D91" s="160"/>
@@ -6959,7 +6845,7 @@
       <c r="N91" s="160"/>
       <c r="O91" s="161"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="159"/>
       <c r="C92" s="160"/>
       <c r="D92" s="160"/>
@@ -6975,7 +6861,7 @@
       <c r="N92" s="160"/>
       <c r="O92" s="161"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="159"/>
       <c r="C93" s="160"/>
       <c r="D93" s="160"/>
@@ -6991,7 +6877,7 @@
       <c r="N93" s="160"/>
       <c r="O93" s="161"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="159"/>
       <c r="C94" s="160"/>
       <c r="D94" s="160"/>
@@ -7007,7 +6893,7 @@
       <c r="N94" s="160"/>
       <c r="O94" s="161"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="159"/>
       <c r="C95" s="160"/>
       <c r="D95" s="160"/>
@@ -7023,7 +6909,7 @@
       <c r="N95" s="160"/>
       <c r="O95" s="161"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="159"/>
       <c r="C96" s="160"/>
       <c r="D96" s="160"/>
@@ -7039,7 +6925,7 @@
       <c r="N96" s="160"/>
       <c r="O96" s="161"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="159"/>
       <c r="C97" s="160"/>
       <c r="D97" s="160"/>
@@ -7055,7 +6941,7 @@
       <c r="N97" s="160"/>
       <c r="O97" s="161"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="159"/>
       <c r="C98" s="160"/>
       <c r="D98" s="160"/>
@@ -7071,10 +6957,10 @@
       <c r="N98" s="160"/>
       <c r="O98" s="161"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="159"/>
       <c r="C99" s="169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D99" s="160"/>
       <c r="E99" s="160"/>
@@ -7089,10 +6975,10 @@
       <c r="N99" s="160"/>
       <c r="O99" s="161"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="159"/>
       <c r="C100" s="160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D100" s="160"/>
       <c r="E100" s="160"/>
@@ -7107,7 +6993,7 @@
       <c r="N100" s="160"/>
       <c r="O100" s="161"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="159"/>
       <c r="C101" s="160"/>
       <c r="D101" s="160"/>
@@ -7123,7 +7009,7 @@
       <c r="N101" s="160"/>
       <c r="O101" s="161"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="159"/>
       <c r="C102" s="160"/>
       <c r="D102" s="160"/>
@@ -7139,7 +7025,7 @@
       <c r="N102" s="160"/>
       <c r="O102" s="161"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="159"/>
       <c r="C103" s="160"/>
       <c r="D103" s="160"/>
@@ -7155,7 +7041,7 @@
       <c r="N103" s="160"/>
       <c r="O103" s="161"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="159"/>
       <c r="C104" s="160"/>
       <c r="D104" s="160"/>
@@ -7171,7 +7057,7 @@
       <c r="N104" s="160"/>
       <c r="O104" s="161"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="159"/>
       <c r="C105" s="160"/>
       <c r="D105" s="160"/>
@@ -7187,7 +7073,7 @@
       <c r="N105" s="160"/>
       <c r="O105" s="161"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="159"/>
       <c r="C106" s="160"/>
       <c r="D106" s="160"/>
@@ -7203,7 +7089,7 @@
       <c r="N106" s="160"/>
       <c r="O106" s="161"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="159"/>
       <c r="C107" s="160"/>
       <c r="D107" s="160"/>
@@ -7219,14 +7105,14 @@
       <c r="N107" s="160"/>
       <c r="O107" s="161"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="159"/>
       <c r="C108" s="160"/>
       <c r="D108" s="163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108" s="160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F108" s="160"/>
       <c r="G108" s="160"/>
@@ -7239,16 +7125,16 @@
       <c r="N108" s="160"/>
       <c r="O108" s="161"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="159"/>
       <c r="C109" s="160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" s="160">
         <v>12</v>
       </c>
       <c r="E109" s="160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F109" s="160"/>
       <c r="G109" s="160"/>
@@ -7261,7 +7147,7 @@
       <c r="N109" s="160"/>
       <c r="O109" s="161"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="159"/>
       <c r="C110" s="160"/>
       <c r="D110" s="160"/>
@@ -7277,7 +7163,7 @@
       <c r="N110" s="160"/>
       <c r="O110" s="161"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="159"/>
       <c r="C111" s="160"/>
       <c r="D111" s="160"/>
@@ -7293,7 +7179,7 @@
       <c r="N111" s="160"/>
       <c r="O111" s="161"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="159"/>
       <c r="C112" s="160" t="s">
         <v>84</v>
@@ -7311,10 +7197,10 @@
       <c r="N112" s="160"/>
       <c r="O112" s="161"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="159"/>
       <c r="C113" s="160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D113" s="160"/>
       <c r="E113" s="160"/>
@@ -7329,7 +7215,7 @@
       <c r="N113" s="160"/>
       <c r="O113" s="161"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="159"/>
       <c r="C114" s="160"/>
       <c r="D114" s="160"/>
@@ -7345,7 +7231,7 @@
       <c r="N114" s="160"/>
       <c r="O114" s="161"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="159"/>
       <c r="C115" s="160"/>
       <c r="D115" s="160">
@@ -7365,16 +7251,16 @@
       <c r="N115" s="160"/>
       <c r="O115" s="161"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="159"/>
       <c r="C116" s="160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="160">
         <v>42</v>
       </c>
       <c r="E116" s="160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F116" s="160"/>
       <c r="G116" s="160"/>
@@ -7387,16 +7273,16 @@
       <c r="N116" s="160"/>
       <c r="O116" s="161"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="159"/>
       <c r="C117" s="160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117" s="160">
         <v>8</v>
       </c>
       <c r="E117" s="160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F117" s="160"/>
       <c r="G117" s="160"/>
@@ -7409,7 +7295,7 @@
       <c r="N117" s="160"/>
       <c r="O117" s="161"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="159"/>
       <c r="C118" s="160"/>
       <c r="D118" s="160">
@@ -7428,16 +7314,16 @@
       <c r="N118" s="160"/>
       <c r="O118" s="161"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="159"/>
       <c r="C119" s="160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D119" s="160">
         <v>16</v>
       </c>
       <c r="E119" s="160" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F119" s="160"/>
       <c r="G119" s="160"/>
@@ -7450,7 +7336,7 @@
       <c r="N119" s="160"/>
       <c r="O119" s="161"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="159"/>
       <c r="C120" s="160"/>
       <c r="D120" s="160">
@@ -7469,7 +7355,7 @@
       <c r="N120" s="160"/>
       <c r="O120" s="161"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="159"/>
       <c r="C121" s="160"/>
       <c r="D121" s="160"/>
@@ -7485,7 +7371,7 @@
       <c r="N121" s="160"/>
       <c r="O121" s="161"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="159"/>
       <c r="C122" s="160"/>
       <c r="D122" s="160"/>
@@ -7501,7 +7387,7 @@
       <c r="N122" s="160"/>
       <c r="O122" s="161"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="159"/>
       <c r="C123" s="160"/>
       <c r="D123" s="160"/>
@@ -7517,7 +7403,7 @@
       <c r="N123" s="160"/>
       <c r="O123" s="161"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="159"/>
       <c r="C124" s="160"/>
       <c r="D124" s="160"/>
@@ -7533,7 +7419,7 @@
       <c r="N124" s="160"/>
       <c r="O124" s="161"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="159"/>
       <c r="C125" s="160"/>
       <c r="D125" s="160"/>
@@ -7549,7 +7435,7 @@
       <c r="N125" s="160"/>
       <c r="O125" s="161"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="159"/>
       <c r="C126" s="160"/>
       <c r="D126" s="160"/>
@@ -7565,7 +7451,7 @@
       <c r="N126" s="160"/>
       <c r="O126" s="161"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="159"/>
       <c r="C127" s="160"/>
       <c r="D127" s="160"/>
@@ -7581,7 +7467,7 @@
       <c r="N127" s="160"/>
       <c r="O127" s="161"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="159"/>
       <c r="C128" s="160"/>
       <c r="D128" s="160"/>
@@ -7597,7 +7483,7 @@
       <c r="N128" s="160"/>
       <c r="O128" s="161"/>
     </row>
-    <row r="129" spans="2:15">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" s="159"/>
       <c r="C129" s="160"/>
       <c r="D129" s="160"/>
@@ -7613,7 +7499,7 @@
       <c r="N129" s="160"/>
       <c r="O129" s="161"/>
     </row>
-    <row r="130" spans="2:15">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" s="159"/>
       <c r="C130" s="160"/>
       <c r="D130" s="160"/>
@@ -7629,7 +7515,7 @@
       <c r="N130" s="160"/>
       <c r="O130" s="161"/>
     </row>
-    <row r="131" spans="2:15">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" s="159"/>
       <c r="C131" s="160"/>
       <c r="D131" s="160"/>
@@ -7645,7 +7531,7 @@
       <c r="N131" s="160"/>
       <c r="O131" s="161"/>
     </row>
-    <row r="132" spans="2:15">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" s="159"/>
       <c r="C132" s="160"/>
       <c r="D132" s="160"/>
@@ -7661,7 +7547,7 @@
       <c r="N132" s="160"/>
       <c r="O132" s="161"/>
     </row>
-    <row r="133" spans="2:15">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" s="159"/>
       <c r="C133" s="160"/>
       <c r="D133" s="160"/>
@@ -7677,7 +7563,7 @@
       <c r="N133" s="160"/>
       <c r="O133" s="161"/>
     </row>
-    <row r="134" spans="2:15">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" s="159"/>
       <c r="C134" s="160"/>
       <c r="D134" s="160"/>
@@ -7693,7 +7579,7 @@
       <c r="N134" s="160"/>
       <c r="O134" s="161"/>
     </row>
-    <row r="135" spans="2:15">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135" s="159"/>
       <c r="C135" s="160"/>
       <c r="D135" s="160"/>
@@ -7709,7 +7595,7 @@
       <c r="N135" s="160"/>
       <c r="O135" s="161"/>
     </row>
-    <row r="136" spans="2:15">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136" s="159"/>
       <c r="C136" s="160"/>
       <c r="D136" s="160"/>
@@ -7725,7 +7611,7 @@
       <c r="N136" s="160"/>
       <c r="O136" s="161"/>
     </row>
-    <row r="137" spans="2:15">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137" s="159"/>
       <c r="C137" s="160"/>
       <c r="D137" s="160"/>
@@ -7741,7 +7627,7 @@
       <c r="N137" s="160"/>
       <c r="O137" s="161"/>
     </row>
-    <row r="138" spans="2:15">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138" s="159"/>
       <c r="C138" s="160"/>
       <c r="D138" s="160"/>
@@ -7757,7 +7643,7 @@
       <c r="N138" s="160"/>
       <c r="O138" s="161"/>
     </row>
-    <row r="139" spans="2:15">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139" s="159"/>
       <c r="C139" s="160"/>
       <c r="D139" s="160"/>
@@ -7773,7 +7659,7 @@
       <c r="N139" s="160"/>
       <c r="O139" s="161"/>
     </row>
-    <row r="140" spans="2:15">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140" s="159"/>
       <c r="C140" s="160"/>
       <c r="D140" s="160"/>
@@ -7789,7 +7675,7 @@
       <c r="N140" s="160"/>
       <c r="O140" s="161"/>
     </row>
-    <row r="141" spans="2:15">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141" s="159"/>
       <c r="C141" s="160"/>
       <c r="D141" s="160"/>
@@ -7805,7 +7691,7 @@
       <c r="N141" s="160"/>
       <c r="O141" s="161"/>
     </row>
-    <row r="142" spans="2:15">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142" s="159"/>
       <c r="C142" s="160"/>
       <c r="D142" s="160"/>
@@ -7821,10 +7707,10 @@
       <c r="N142" s="160"/>
       <c r="O142" s="161"/>
     </row>
-    <row r="143" spans="2:15">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143" s="159"/>
       <c r="C143" s="167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D143" s="160"/>
       <c r="E143" s="160"/>
@@ -7839,10 +7725,10 @@
       <c r="N143" s="160"/>
       <c r="O143" s="161"/>
     </row>
-    <row r="144" spans="2:15">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144" s="159"/>
       <c r="C144" s="167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144" s="160"/>
       <c r="E144" s="160"/>
@@ -7857,7 +7743,7 @@
       <c r="N144" s="160"/>
       <c r="O144" s="161"/>
     </row>
-    <row r="145" spans="2:15">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B145" s="159"/>
       <c r="C145" s="160"/>
       <c r="D145" s="160"/>
@@ -7873,7 +7759,7 @@
       <c r="N145" s="160"/>
       <c r="O145" s="161"/>
     </row>
-    <row r="146" spans="2:15">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B146" s="159"/>
       <c r="C146" s="160"/>
       <c r="D146" s="160"/>
@@ -7889,7 +7775,7 @@
       <c r="N146" s="160"/>
       <c r="O146" s="161"/>
     </row>
-    <row r="147" spans="2:15">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B147" s="159"/>
       <c r="C147" s="160"/>
       <c r="D147" s="160"/>
@@ -7905,7 +7791,7 @@
       <c r="N147" s="160"/>
       <c r="O147" s="161"/>
     </row>
-    <row r="148" spans="2:15">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B148" s="159"/>
       <c r="C148" s="160"/>
       <c r="D148" s="160"/>
@@ -7921,7 +7807,7 @@
       <c r="N148" s="160"/>
       <c r="O148" s="161"/>
     </row>
-    <row r="149" spans="2:15">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B149" s="159"/>
       <c r="C149" s="160"/>
       <c r="D149" s="160"/>
@@ -7937,7 +7823,7 @@
       <c r="N149" s="160"/>
       <c r="O149" s="161"/>
     </row>
-    <row r="150" spans="2:15">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B150" s="159"/>
       <c r="C150" s="160"/>
       <c r="D150" s="160"/>
@@ -7953,7 +7839,7 @@
       <c r="N150" s="160"/>
       <c r="O150" s="161"/>
     </row>
-    <row r="151" spans="2:15">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B151" s="159"/>
       <c r="C151" s="160"/>
       <c r="D151" s="160"/>
@@ -7969,7 +7855,7 @@
       <c r="N151" s="160"/>
       <c r="O151" s="161"/>
     </row>
-    <row r="152" spans="2:15">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B152" s="159"/>
       <c r="C152" s="160"/>
       <c r="D152" s="160">
@@ -7989,14 +7875,14 @@
       <c r="N152" s="160"/>
       <c r="O152" s="161"/>
     </row>
-    <row r="153" spans="2:15">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B153" s="159"/>
       <c r="C153" s="160"/>
       <c r="D153" s="160">
         <v>973</v>
       </c>
       <c r="E153" s="167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F153" s="160"/>
       <c r="G153" s="160"/>
@@ -8009,14 +7895,14 @@
       <c r="N153" s="160"/>
       <c r="O153" s="161"/>
     </row>
-    <row r="154" spans="2:15">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B154" s="159"/>
       <c r="C154" s="160"/>
       <c r="D154" s="160">
         <v>749</v>
       </c>
       <c r="E154" s="167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F154" s="160"/>
       <c r="G154" s="160"/>
@@ -8029,7 +7915,7 @@
       <c r="N154" s="160"/>
       <c r="O154" s="161"/>
     </row>
-    <row r="155" spans="2:15">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B155" s="159"/>
       <c r="C155" s="160"/>
       <c r="D155" s="160"/>
@@ -8045,14 +7931,14 @@
       <c r="N155" s="160"/>
       <c r="O155" s="161"/>
     </row>
-    <row r="156" spans="2:15">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B156" s="159"/>
       <c r="C156" s="160"/>
       <c r="D156" s="160">
         <v>7.34</v>
       </c>
       <c r="E156" s="167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F156" s="160"/>
       <c r="G156" s="160"/>
@@ -8065,14 +7951,14 @@
       <c r="N156" s="160"/>
       <c r="O156" s="161"/>
     </row>
-    <row r="157" spans="2:15">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B157" s="159"/>
       <c r="C157" s="160"/>
       <c r="D157" s="160">
         <v>5.7</v>
       </c>
       <c r="E157" s="167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F157" s="160"/>
       <c r="G157" s="160"/>
@@ -8085,7 +7971,7 @@
       <c r="N157" s="160"/>
       <c r="O157" s="161"/>
     </row>
-    <row r="158" spans="2:15">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B158" s="159"/>
       <c r="C158" s="160"/>
       <c r="D158" s="160"/>
@@ -8101,14 +7987,14 @@
       <c r="N158" s="160"/>
       <c r="O158" s="161"/>
     </row>
-    <row r="159" spans="2:15">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" s="159"/>
       <c r="C159" s="160"/>
       <c r="D159" s="160">
         <v>15.45</v>
       </c>
       <c r="E159" s="167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F159" s="160"/>
       <c r="G159" s="160"/>
@@ -8121,14 +8007,14 @@
       <c r="N159" s="160"/>
       <c r="O159" s="161"/>
     </row>
-    <row r="160" spans="2:15">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B160" s="159"/>
       <c r="C160" s="160"/>
       <c r="D160" s="160">
         <v>11.9</v>
       </c>
       <c r="E160" s="167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F160" s="160"/>
       <c r="G160" s="160"/>
@@ -8141,7 +8027,7 @@
       <c r="N160" s="160"/>
       <c r="O160" s="161"/>
     </row>
-    <row r="161" spans="2:15">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B161" s="159"/>
       <c r="C161" s="160"/>
       <c r="D161" s="160"/>
@@ -8157,7 +8043,7 @@
       <c r="N161" s="160"/>
       <c r="O161" s="161"/>
     </row>
-    <row r="162" spans="2:15">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B162" s="159"/>
       <c r="C162" s="160"/>
       <c r="D162" s="160"/>
@@ -8173,7 +8059,7 @@
       <c r="N162" s="160"/>
       <c r="O162" s="161"/>
     </row>
-    <row r="163" spans="2:15">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" s="159"/>
       <c r="C163" s="160"/>
       <c r="D163" s="160"/>
@@ -8189,7 +8075,7 @@
       <c r="N163" s="160"/>
       <c r="O163" s="161"/>
     </row>
-    <row r="164" spans="2:15">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" s="159"/>
       <c r="C164" s="160"/>
       <c r="D164" s="160"/>
@@ -8205,7 +8091,7 @@
       <c r="N164" s="160"/>
       <c r="O164" s="161"/>
     </row>
-    <row r="165" spans="2:15">
+    <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" s="159"/>
       <c r="C165" s="160"/>
       <c r="D165" s="160"/>
@@ -8221,7 +8107,7 @@
       <c r="N165" s="160"/>
       <c r="O165" s="161"/>
     </row>
-    <row r="166" spans="2:15">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" s="159"/>
       <c r="C166" s="160"/>
       <c r="D166" s="160"/>
@@ -8237,7 +8123,7 @@
       <c r="N166" s="160"/>
       <c r="O166" s="161"/>
     </row>
-    <row r="167" spans="2:15">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B167" s="159"/>
       <c r="C167" s="160"/>
       <c r="D167" s="160"/>
@@ -8253,7 +8139,7 @@
       <c r="N167" s="160"/>
       <c r="O167" s="161"/>
     </row>
-    <row r="168" spans="2:15">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B168" s="159"/>
       <c r="C168" s="160"/>
       <c r="D168" s="160"/>
@@ -8269,7 +8155,7 @@
       <c r="N168" s="160"/>
       <c r="O168" s="161"/>
     </row>
-    <row r="169" spans="2:15">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" s="159"/>
       <c r="C169" s="160"/>
       <c r="D169" s="160"/>
@@ -8285,7 +8171,7 @@
       <c r="N169" s="160"/>
       <c r="O169" s="161"/>
     </row>
-    <row r="170" spans="2:15">
+    <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" s="159"/>
       <c r="C170" s="160"/>
       <c r="D170" s="160"/>
@@ -8301,7 +8187,7 @@
       <c r="N170" s="160"/>
       <c r="O170" s="161"/>
     </row>
-    <row r="171" spans="2:15">
+    <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" s="159"/>
       <c r="C171" s="160"/>
       <c r="D171" s="160"/>
@@ -8317,7 +8203,7 @@
       <c r="N171" s="160"/>
       <c r="O171" s="161"/>
     </row>
-    <row r="172" spans="2:15">
+    <row r="172" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B172" s="159"/>
       <c r="C172" s="160"/>
       <c r="D172" s="160"/>
@@ -8333,7 +8219,7 @@
       <c r="N172" s="160"/>
       <c r="O172" s="161"/>
     </row>
-    <row r="173" spans="2:15">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B173" s="159"/>
       <c r="C173" s="160"/>
       <c r="D173" s="160"/>
@@ -8349,7 +8235,7 @@
       <c r="N173" s="160"/>
       <c r="O173" s="161"/>
     </row>
-    <row r="174" spans="2:15">
+    <row r="174" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B174" s="159"/>
       <c r="C174" s="160"/>
       <c r="D174" s="160"/>
@@ -8365,7 +8251,7 @@
       <c r="N174" s="160"/>
       <c r="O174" s="161"/>
     </row>
-    <row r="175" spans="2:15">
+    <row r="175" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B175" s="159"/>
       <c r="C175" s="160"/>
       <c r="D175" s="160"/>
@@ -8381,7 +8267,7 @@
       <c r="N175" s="160"/>
       <c r="O175" s="161"/>
     </row>
-    <row r="176" spans="2:15">
+    <row r="176" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B176" s="159"/>
       <c r="C176" s="160"/>
       <c r="D176" s="160"/>
@@ -8397,7 +8283,7 @@
       <c r="N176" s="160"/>
       <c r="O176" s="161"/>
     </row>
-    <row r="177" spans="2:15">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B177" s="159"/>
       <c r="C177" s="160"/>
       <c r="D177" s="160"/>
@@ -8413,7 +8299,7 @@
       <c r="N177" s="160"/>
       <c r="O177" s="161"/>
     </row>
-    <row r="178" spans="2:15">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B178" s="159"/>
       <c r="C178" s="160"/>
       <c r="D178" s="160"/>
@@ -8432,10 +8318,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_turbine_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_turbine_network_gas.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4C46C-BBA4-F047-917F-52A8C523FD79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -830,18 +837,21 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1030,6 +1040,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1616,7 +1632,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1942,6 +1958,7 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2179,13 +2196,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="234" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="234" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2208,7 +2228,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2246,7 +2272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2284,7 +2316,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2322,7 +2360,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2360,7 +2404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2397,7 +2447,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2435,7 +2491,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2473,7 +2535,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2511,7 +2579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2971,15 +3045,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
@@ -2987,24 +3061,24 @@
     <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -3013,7 +3087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>102</v>
@@ -3022,7 +3096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -3031,29 +3105,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="118"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="119" t="s">
         <v>105</v>
@@ -3062,33 +3136,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="119"/>
       <c r="C12" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="119" t="s">
         <v>110</v>
@@ -3097,49 +3171,49 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
         <v>118</v>
@@ -3152,17 +3226,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
@@ -3177,14 +3251,14 @@
     <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="172" t="s">
         <v>178</v>
       </c>
@@ -3195,7 +3269,7 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="175"/>
       <c r="C3" s="176"/>
       <c r="D3" s="176"/>
@@ -3204,7 +3278,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="175"/>
       <c r="C4" s="176"/>
       <c r="D4" s="176"/>
@@ -3213,7 +3287,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="178"/>
       <c r="C5" s="179"/>
       <c r="D5" s="179"/>
@@ -3222,10 +3296,10 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3236,7 +3310,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="145"/>
       <c r="C8" s="15" t="s">
         <v>33</v>
@@ -3257,7 +3331,7 @@
       </c>
       <c r="J8" s="147"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -3268,7 +3342,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>119</v>
@@ -3281,7 +3355,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -3301,7 +3375,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="20"/>
       <c r="C12" s="33" t="s">
         <v>66</v>
@@ -3320,7 +3394,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3340,7 +3414,7 @@
       <c r="J13" s="148"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -3360,7 +3434,7 @@
       <c r="J14" s="148"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>39</v>
@@ -3380,7 +3454,7 @@
       <c r="J15" s="148"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>11</v>
@@ -3400,7 +3474,7 @@
       <c r="J16" s="148"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3420,7 +3494,7 @@
       <c r="J17" s="148"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3440,7 +3514,7 @@
       <c r="J18" s="148"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3462,7 +3536,7 @@
       </c>
       <c r="J19" s="148"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>45</v>
@@ -3483,7 +3557,7 @@
       </c>
       <c r="J20" s="148"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="37"/>
       <c r="C21" s="32"/>
       <c r="D21" s="149"/>
@@ -3494,7 +3568,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="148"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="14" t="s">
         <v>132</v>
@@ -3507,7 +3581,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="148"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>46</v>
@@ -3529,7 +3603,7 @@
       </c>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>47</v>
@@ -3550,7 +3624,7 @@
       </c>
       <c r="J24" s="148"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>13</v>
@@ -3571,7 +3645,7 @@
       </c>
       <c r="J25" s="148"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -3592,7 +3666,7 @@
       </c>
       <c r="J26" s="148"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3614,7 +3688,7 @@
       </c>
       <c r="J27" s="148"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -3636,7 +3710,7 @@
       </c>
       <c r="J28" s="148"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>51</v>
@@ -3657,7 +3731,7 @@
       </c>
       <c r="J29" s="148"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>54</v>
@@ -3666,19 +3740,19 @@
         <v>3</v>
       </c>
       <c r="E30" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>57</v>
+      <c r="I30" s="181" t="s">
+        <v>179</v>
       </c>
       <c r="J30" s="148"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>41</v>
@@ -3697,7 +3771,7 @@
       </c>
       <c r="J31" s="148"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="37"/>
       <c r="C32" s="33"/>
       <c r="D32" s="19"/>
@@ -3708,7 +3782,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="148"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="14" t="s">
         <v>8</v>
@@ -3721,7 +3795,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="148"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>40</v>
@@ -3743,7 +3817,7 @@
       </c>
       <c r="J34" s="148"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>52</v>
@@ -3765,7 +3839,7 @@
       </c>
       <c r="J35" s="148"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>53</v>
@@ -3787,7 +3861,7 @@
       </c>
       <c r="J36" s="148"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>38</v>
@@ -3806,7 +3880,7 @@
       </c>
       <c r="J37" s="148"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>67</v>
@@ -3823,7 +3897,7 @@
       </c>
       <c r="J38" s="148"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>68</v>
@@ -3840,7 +3914,7 @@
       </c>
       <c r="J39" s="148"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>70</v>
@@ -3857,7 +3931,7 @@
       </c>
       <c r="J40" s="148"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="45" t="s">
         <v>71</v>
@@ -3874,7 +3948,7 @@
       </c>
       <c r="J41" s="148"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="45" t="s">
         <v>69</v>
@@ -3891,7 +3965,7 @@
       </c>
       <c r="J42" s="148"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -3912,8 +3986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:AA22"/>
@@ -3922,7 +3996,7 @@
       <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" style="71" customWidth="1"/>
@@ -3953,8 +4027,8 @@
     <col min="28" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" ht="17" thickBot="1"/>
+    <row r="2" spans="2:27">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3982,7 +4056,7 @@
       <c r="Z2" s="75"/>
       <c r="AA2" s="74"/>
     </row>
-    <row r="3" spans="2:27" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="132" t="s">
         <v>120</v>
@@ -4034,7 +4108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -4062,7 +4136,7 @@
       <c r="Z4" s="139"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="17" thickBot="1">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
         <v>119</v>
@@ -4092,7 +4166,7 @@
       <c r="Z5" s="10"/>
       <c r="AA5" s="70"/>
     </row>
-    <row r="6" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="17" thickBot="1">
       <c r="B6" s="76"/>
       <c r="C6" s="116" t="s">
         <v>30</v>
@@ -4144,7 +4218,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="17" thickBot="1">
       <c r="B7" s="76"/>
       <c r="C7" s="79" t="s">
         <v>79</v>
@@ -4192,7 +4266,7 @@
       <c r="Y7" s="84"/>
       <c r="AA7" s="70"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27">
       <c r="B8" s="76"/>
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
@@ -4219,7 +4293,7 @@
       <c r="Y8" s="84"/>
       <c r="AA8" s="142"/>
     </row>
-    <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="17" thickBot="1">
       <c r="B9" s="76"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -4251,7 +4325,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="17" thickBot="1">
       <c r="B10" s="76"/>
       <c r="C10" s="143" t="s">
         <v>131</v>
@@ -4290,7 +4364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="17" thickBot="1">
       <c r="B11" s="76"/>
       <c r="C11" s="92" t="s">
         <v>1</v>
@@ -4330,7 +4404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="17" thickBot="1">
       <c r="B12" s="76"/>
       <c r="C12" s="94" t="s">
         <v>6</v>
@@ -4368,7 +4442,7 @@
       <c r="Z12" s="78"/>
       <c r="AA12" s="70"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27">
       <c r="B13" s="76"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4396,7 +4470,7 @@
       <c r="Z13" s="84"/>
       <c r="AA13" s="70"/>
     </row>
-    <row r="14" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="17" thickBot="1">
       <c r="B14" s="76"/>
       <c r="C14" s="13" t="s">
         <v>121</v>
@@ -4426,7 +4500,7 @@
       <c r="Z14" s="84"/>
       <c r="AA14" s="70"/>
     </row>
-    <row r="15" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="17" thickBot="1">
       <c r="B15" s="76"/>
       <c r="C15" s="133" t="s">
         <v>122</v>
@@ -4461,7 +4535,7 @@
       <c r="Z15" s="84"/>
       <c r="AA15" s="70"/>
     </row>
-    <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" ht="17" thickBot="1">
       <c r="B16" s="76"/>
       <c r="C16" s="97" t="s">
         <v>9</v>
@@ -4499,7 +4573,7 @@
       <c r="Z16" s="84"/>
       <c r="AA16" s="113"/>
     </row>
-    <row r="17" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="17" thickBot="1">
       <c r="B17" s="76"/>
       <c r="C17" s="85" t="s">
         <v>129</v>
@@ -4534,7 +4608,7 @@
       <c r="Z17" s="87"/>
       <c r="AA17" s="70"/>
     </row>
-    <row r="18" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" ht="17" thickBot="1">
       <c r="B18" s="76"/>
       <c r="C18" s="85" t="s">
         <v>129</v>
@@ -4577,7 +4651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="17" thickBot="1">
       <c r="B19" s="76"/>
       <c r="C19" s="85" t="s">
         <v>61</v>
@@ -4614,7 +4688,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="17" thickBot="1">
       <c r="B20" s="76"/>
       <c r="C20" s="85" t="s">
         <v>61</v>
@@ -4657,7 +4731,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="17" thickBot="1">
       <c r="B21" s="76"/>
       <c r="C21" s="143" t="s">
         <v>130</v>
@@ -4693,7 +4767,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="17" thickBot="1">
       <c r="B22" s="76"/>
       <c r="C22" s="154" t="s">
         <v>133</v>
@@ -4730,7 +4804,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA10" r:id="rId1"/>
+    <hyperlink ref="AA10" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4738,8 +4812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K36"/>
@@ -4748,7 +4822,7 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.42578125" style="46" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="46" customWidth="1"/>
@@ -4761,8 +4835,8 @@
     <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4774,7 +4848,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>23</v>
@@ -4788,7 +4862,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4800,7 +4874,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>31</v>
@@ -4828,7 +4902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4840,7 +4914,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="65"/>
       <c r="D7" s="59"/>
@@ -4864,7 +4938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="67" t="s">
         <v>29</v>
@@ -4878,7 +4952,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="111"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="67" t="s">
         <v>78</v>
@@ -4892,7 +4966,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="114"/>
       <c r="D10" s="64"/>
@@ -4904,7 +4978,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="51"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -4928,7 +5002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="114" t="s">
         <v>29</v>
@@ -4941,7 +5015,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="114" t="s">
         <v>78</v>
@@ -4954,7 +5028,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="34">
       <c r="B14" s="51"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -4976,7 +5050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="114" t="s">
         <v>29</v>
@@ -4989,7 +5063,7 @@
       <c r="J15" s="62"/>
       <c r="K15" s="59"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="114" t="s">
         <v>78</v>
@@ -5002,7 +5076,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="114"/>
       <c r="D17" s="64"/>
@@ -5013,7 +5087,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="34">
       <c r="B18" s="51"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -5037,7 +5111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="114" t="s">
         <v>29</v>
@@ -5050,7 +5124,7 @@
       <c r="J19" s="62"/>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="51"/>
       <c r="C20" s="114" t="s">
         <v>78</v>
@@ -5063,7 +5137,7 @@
       <c r="J20" s="62"/>
       <c r="K20" s="59"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="51"/>
       <c r="C21" s="114"/>
       <c r="D21" s="64"/>
@@ -5074,7 +5148,7 @@
       <c r="J21" s="62"/>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="51"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -5098,7 +5172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="51"/>
       <c r="C23" s="65" t="s">
         <v>89</v>
@@ -5112,7 +5186,7 @@
       <c r="J23" s="55"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="51"/>
       <c r="C24" s="65" t="s">
         <v>90</v>
@@ -5126,7 +5200,7 @@
       <c r="J24" s="55"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="51"/>
       <c r="C25" s="65" t="s">
         <v>93</v>
@@ -5140,7 +5214,7 @@
       <c r="J25" s="55"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="51"/>
       <c r="C26" s="65"/>
       <c r="D26" s="59"/>
@@ -5152,7 +5226,7 @@
       <c r="J26" s="55"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="51"/>
       <c r="C27" s="60"/>
       <c r="D27" s="59"/>
@@ -5176,7 +5250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="51"/>
       <c r="C28" s="67" t="s">
         <v>1</v>
@@ -5190,7 +5264,7 @@
       <c r="J28" s="55"/>
       <c r="K28" s="59"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="51"/>
       <c r="C29" s="65"/>
       <c r="D29" s="59"/>
@@ -5202,7 +5276,7 @@
       <c r="J29" s="66"/>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="51"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -5226,7 +5300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="51"/>
       <c r="C31" s="67" t="s">
         <v>168</v>
@@ -5240,7 +5314,7 @@
       <c r="J31" s="66"/>
       <c r="K31" s="59"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="51"/>
       <c r="C32" s="67" t="s">
         <v>165</v>
@@ -5254,7 +5328,7 @@
       <c r="J32" s="66"/>
       <c r="K32" s="59"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="51"/>
       <c r="C33" s="65" t="s">
         <v>90</v>
@@ -5268,7 +5342,7 @@
       <c r="J33" s="66"/>
       <c r="K33" s="59"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="51"/>
       <c r="C34" s="65"/>
       <c r="D34" s="59"/>
@@ -5280,7 +5354,7 @@
       <c r="J34" s="66"/>
       <c r="K34" s="59"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="51"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -5300,7 +5374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="51"/>
       <c r="C36" s="59" t="s">
         <v>94</v>
@@ -5318,8 +5392,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K27" r:id="rId1"/>
-    <hyperlink ref="K35" r:id="rId2"/>
+    <hyperlink ref="K27" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K35" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5330,22 +5404,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O178"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="156" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="156" customWidth="1"/>
     <col min="3" max="16384" width="10.7109375" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15" s="21" customFormat="1">
       <c r="B2" s="164"/>
       <c r="C2" s="165" t="s">
         <v>0</v>
@@ -5365,7 +5439,7 @@
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" s="159"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
@@ -5381,7 +5455,7 @@
       <c r="N3" s="160"/>
       <c r="O3" s="161"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="159"/>
       <c r="C4" s="160" t="s">
         <v>137</v>
@@ -5399,7 +5473,7 @@
       <c r="N4" s="160"/>
       <c r="O4" s="161"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" s="159"/>
       <c r="C5" s="160" t="s">
         <v>138</v>
@@ -5417,7 +5491,7 @@
       <c r="N5" s="160"/>
       <c r="O5" s="161"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" s="159"/>
       <c r="C6" s="160"/>
       <c r="D6" s="160"/>
@@ -5433,7 +5507,7 @@
       <c r="N6" s="160"/>
       <c r="O6" s="161"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7" s="159"/>
       <c r="C7" s="160"/>
       <c r="D7" s="160"/>
@@ -5449,7 +5523,7 @@
       <c r="N7" s="160"/>
       <c r="O7" s="161"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="159"/>
       <c r="C8" s="160"/>
       <c r="D8" s="160"/>
@@ -5465,7 +5539,7 @@
       <c r="N8" s="160"/>
       <c r="O8" s="161"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9" s="159"/>
       <c r="C9" s="160"/>
       <c r="D9" s="160"/>
@@ -5481,7 +5555,7 @@
       <c r="N9" s="160"/>
       <c r="O9" s="161"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" s="159"/>
       <c r="C10" s="160"/>
       <c r="D10" s="160"/>
@@ -5497,7 +5571,7 @@
       <c r="N10" s="160"/>
       <c r="O10" s="161"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="159"/>
       <c r="C11" s="160"/>
       <c r="D11" s="160">
@@ -5517,7 +5591,7 @@
       <c r="N11" s="160"/>
       <c r="O11" s="161"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="159"/>
       <c r="C12" s="160"/>
       <c r="D12" s="162">
@@ -5537,7 +5611,7 @@
       <c r="N12" s="160"/>
       <c r="O12" s="161"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" s="159"/>
       <c r="C13" s="160"/>
       <c r="D13" s="160"/>
@@ -5553,7 +5627,7 @@
       <c r="N13" s="160"/>
       <c r="O13" s="161"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="B14" s="159"/>
       <c r="C14" s="160"/>
       <c r="D14" s="160"/>
@@ -5569,7 +5643,7 @@
       <c r="N14" s="160"/>
       <c r="O14" s="161"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="B15" s="159"/>
       <c r="C15" s="160"/>
       <c r="D15" s="160"/>
@@ -5585,7 +5659,7 @@
       <c r="N15" s="160"/>
       <c r="O15" s="161"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16" s="159"/>
       <c r="C16" s="160"/>
       <c r="D16" s="160"/>
@@ -5601,7 +5675,7 @@
       <c r="N16" s="160"/>
       <c r="O16" s="161"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="159"/>
       <c r="C17" s="160"/>
       <c r="D17" s="160"/>
@@ -5617,7 +5691,7 @@
       <c r="N17" s="160"/>
       <c r="O17" s="161"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="159"/>
       <c r="C18" s="160"/>
       <c r="D18" s="160"/>
@@ -5633,7 +5707,7 @@
       <c r="N18" s="160"/>
       <c r="O18" s="161"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="159"/>
       <c r="C19" s="160"/>
       <c r="D19" s="160"/>
@@ -5649,7 +5723,7 @@
       <c r="N19" s="160"/>
       <c r="O19" s="161"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="159"/>
       <c r="C20" s="160"/>
       <c r="D20" s="160"/>
@@ -5665,7 +5739,7 @@
       <c r="N20" s="160"/>
       <c r="O20" s="161"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="159"/>
       <c r="C21" s="160"/>
       <c r="D21" s="160"/>
@@ -5681,7 +5755,7 @@
       <c r="N21" s="160"/>
       <c r="O21" s="161"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="159"/>
       <c r="C22" s="160"/>
       <c r="D22" s="160"/>
@@ -5697,7 +5771,7 @@
       <c r="N22" s="160"/>
       <c r="O22" s="161"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="159"/>
       <c r="C23" s="160"/>
       <c r="D23" s="160"/>
@@ -5713,7 +5787,7 @@
       <c r="N23" s="160"/>
       <c r="O23" s="161"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="159"/>
       <c r="C24" s="160"/>
       <c r="D24" s="160"/>
@@ -5729,7 +5803,7 @@
       <c r="N24" s="160"/>
       <c r="O24" s="161"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="159"/>
       <c r="C25" s="160"/>
       <c r="D25" s="160"/>
@@ -5745,7 +5819,7 @@
       <c r="N25" s="160"/>
       <c r="O25" s="161"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="159"/>
       <c r="C26" s="160"/>
       <c r="D26" s="160"/>
@@ -5761,7 +5835,7 @@
       <c r="N26" s="160"/>
       <c r="O26" s="161"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="159"/>
       <c r="C27" s="160"/>
       <c r="D27" s="160"/>
@@ -5777,7 +5851,7 @@
       <c r="N27" s="160"/>
       <c r="O27" s="161"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="159"/>
       <c r="C28" s="160"/>
       <c r="D28" s="160"/>
@@ -5793,7 +5867,7 @@
       <c r="N28" s="160"/>
       <c r="O28" s="161"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="159"/>
       <c r="C29" s="160" t="s">
         <v>139</v>
@@ -5811,7 +5885,7 @@
       <c r="N29" s="160"/>
       <c r="O29" s="161"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="159"/>
       <c r="C30" s="160" t="s">
         <v>140</v>
@@ -5829,7 +5903,7 @@
       <c r="N30" s="160"/>
       <c r="O30" s="161"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="159"/>
       <c r="C31" s="160"/>
       <c r="D31" s="160"/>
@@ -5845,7 +5919,7 @@
       <c r="N31" s="160"/>
       <c r="O31" s="161"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="159"/>
       <c r="C32" s="160"/>
       <c r="D32" s="160"/>
@@ -5861,7 +5935,7 @@
       <c r="N32" s="160"/>
       <c r="O32" s="161"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="159"/>
       <c r="C33" s="160"/>
       <c r="D33" s="160"/>
@@ -5877,7 +5951,7 @@
       <c r="N33" s="160"/>
       <c r="O33" s="161"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="159"/>
       <c r="C34" s="160"/>
       <c r="D34" s="160"/>
@@ -5893,7 +5967,7 @@
       <c r="N34" s="160"/>
       <c r="O34" s="161"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="159"/>
       <c r="C35" s="160"/>
       <c r="D35" s="160"/>
@@ -5909,7 +5983,7 @@
       <c r="N35" s="160"/>
       <c r="O35" s="161"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="159"/>
       <c r="C36" s="160"/>
       <c r="D36" s="160"/>
@@ -5925,7 +5999,7 @@
       <c r="N36" s="160"/>
       <c r="O36" s="161"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="159"/>
       <c r="C37" s="160"/>
       <c r="D37" s="160"/>
@@ -5941,7 +6015,7 @@
       <c r="N37" s="160"/>
       <c r="O37" s="161"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="159"/>
       <c r="C38" s="160"/>
       <c r="D38" s="160">
@@ -5961,7 +6035,7 @@
       <c r="N38" s="160"/>
       <c r="O38" s="161"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="159"/>
       <c r="C39" s="160"/>
       <c r="D39" s="160">
@@ -5981,7 +6055,7 @@
       <c r="N39" s="160"/>
       <c r="O39" s="161"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="159"/>
       <c r="C40" s="160"/>
       <c r="D40" s="160"/>
@@ -5997,7 +6071,7 @@
       <c r="N40" s="160"/>
       <c r="O40" s="161"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="159"/>
       <c r="C41" s="160"/>
       <c r="D41" s="160"/>
@@ -6013,7 +6087,7 @@
       <c r="N41" s="160"/>
       <c r="O41" s="161"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="159"/>
       <c r="C42" s="160"/>
       <c r="D42" s="160"/>
@@ -6029,7 +6103,7 @@
       <c r="N42" s="160"/>
       <c r="O42" s="161"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="159"/>
       <c r="C43" s="160"/>
       <c r="D43" s="160"/>
@@ -6045,7 +6119,7 @@
       <c r="N43" s="160"/>
       <c r="O43" s="161"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="159"/>
       <c r="C44" s="160"/>
       <c r="D44" s="160"/>
@@ -6061,7 +6135,7 @@
       <c r="N44" s="160"/>
       <c r="O44" s="161"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="159"/>
       <c r="C45" s="160"/>
       <c r="D45" s="160"/>
@@ -6077,7 +6151,7 @@
       <c r="N45" s="160"/>
       <c r="O45" s="161"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="159"/>
       <c r="C46" s="160"/>
       <c r="D46" s="160"/>
@@ -6093,7 +6167,7 @@
       <c r="N46" s="160"/>
       <c r="O46" s="161"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="159"/>
       <c r="C47" s="160"/>
       <c r="D47" s="160"/>
@@ -6109,7 +6183,7 @@
       <c r="N47" s="160"/>
       <c r="O47" s="161"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="159"/>
       <c r="C48" s="160"/>
       <c r="D48" s="160"/>
@@ -6125,7 +6199,7 @@
       <c r="N48" s="160"/>
       <c r="O48" s="161"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="159"/>
       <c r="C49" s="160" t="s">
         <v>92</v>
@@ -6143,7 +6217,7 @@
       <c r="N49" s="160"/>
       <c r="O49" s="161"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="159"/>
       <c r="C50" s="160" t="s">
         <v>141</v>
@@ -6161,7 +6235,7 @@
       <c r="N50" s="160"/>
       <c r="O50" s="161"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="159"/>
       <c r="C51" s="160"/>
       <c r="D51" s="160">
@@ -6181,7 +6255,7 @@
       <c r="N51" s="160"/>
       <c r="O51" s="161"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="159"/>
       <c r="C52" s="160"/>
       <c r="D52" s="160">
@@ -6201,7 +6275,7 @@
       <c r="N52" s="160"/>
       <c r="O52" s="161"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="159"/>
       <c r="C53" s="160"/>
       <c r="D53" s="160"/>
@@ -6217,7 +6291,7 @@
       <c r="N53" s="160"/>
       <c r="O53" s="161"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="159"/>
       <c r="C54" s="160"/>
       <c r="D54" s="160"/>
@@ -6233,7 +6307,7 @@
       <c r="N54" s="160"/>
       <c r="O54" s="161"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="159"/>
       <c r="C55" s="160"/>
       <c r="D55" s="160"/>
@@ -6249,7 +6323,7 @@
       <c r="N55" s="160"/>
       <c r="O55" s="161"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="159"/>
       <c r="C56" s="160"/>
       <c r="D56" s="160"/>
@@ -6265,7 +6339,7 @@
       <c r="N56" s="160"/>
       <c r="O56" s="161"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="159"/>
       <c r="C57" s="160"/>
       <c r="D57" s="160"/>
@@ -6281,7 +6355,7 @@
       <c r="N57" s="160"/>
       <c r="O57" s="161"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="159"/>
       <c r="C58" s="160"/>
       <c r="D58" s="160"/>
@@ -6297,7 +6371,7 @@
       <c r="N58" s="160"/>
       <c r="O58" s="161"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="159"/>
       <c r="C59" s="160"/>
       <c r="D59" s="160"/>
@@ -6313,7 +6387,7 @@
       <c r="N59" s="160"/>
       <c r="O59" s="161"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="159"/>
       <c r="C60" s="160"/>
       <c r="D60" s="160"/>
@@ -6329,7 +6403,7 @@
       <c r="N60" s="160"/>
       <c r="O60" s="161"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="159"/>
       <c r="C61" s="160"/>
       <c r="D61" s="160"/>
@@ -6345,7 +6419,7 @@
       <c r="N61" s="160"/>
       <c r="O61" s="161"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="159"/>
       <c r="C62" s="160"/>
       <c r="D62" s="160"/>
@@ -6361,7 +6435,7 @@
       <c r="N62" s="160"/>
       <c r="O62" s="161"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="159"/>
       <c r="C63" s="160" t="s">
         <v>99</v>
@@ -6379,7 +6453,7 @@
       <c r="N63" s="160"/>
       <c r="O63" s="161"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="159"/>
       <c r="C64" s="160" t="s">
         <v>138</v>
@@ -6397,7 +6471,7 @@
       <c r="N64" s="160"/>
       <c r="O64" s="161"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="159"/>
       <c r="C65" s="160"/>
       <c r="D65" s="160"/>
@@ -6413,7 +6487,7 @@
       <c r="N65" s="160"/>
       <c r="O65" s="161"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="159"/>
       <c r="C66" s="160"/>
       <c r="D66" s="160">
@@ -6433,7 +6507,7 @@
       <c r="N66" s="160"/>
       <c r="O66" s="161"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="159"/>
       <c r="C67" s="160"/>
       <c r="D67" s="160">
@@ -6453,7 +6527,7 @@
       <c r="N67" s="160"/>
       <c r="O67" s="161"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="159"/>
       <c r="C68" s="160"/>
       <c r="D68" s="160"/>
@@ -6469,7 +6543,7 @@
       <c r="N68" s="160"/>
       <c r="O68" s="161"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="159"/>
       <c r="C69" s="160"/>
       <c r="D69" s="160"/>
@@ -6485,7 +6559,7 @@
       <c r="N69" s="160"/>
       <c r="O69" s="161"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="159"/>
       <c r="C70" s="160"/>
       <c r="D70" s="160"/>
@@ -6501,7 +6575,7 @@
       <c r="N70" s="160"/>
       <c r="O70" s="161"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="159"/>
       <c r="C71" s="160"/>
       <c r="D71" s="160"/>
@@ -6517,7 +6591,7 @@
       <c r="N71" s="160"/>
       <c r="O71" s="161"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="159"/>
       <c r="C72" s="160"/>
       <c r="D72" s="160"/>
@@ -6533,7 +6607,7 @@
       <c r="N72" s="160"/>
       <c r="O72" s="161"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="159"/>
       <c r="C73" s="160"/>
       <c r="D73" s="160"/>
@@ -6549,7 +6623,7 @@
       <c r="N73" s="160"/>
       <c r="O73" s="161"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="159"/>
       <c r="C74" s="160"/>
       <c r="D74" s="160"/>
@@ -6565,7 +6639,7 @@
       <c r="N74" s="160"/>
       <c r="O74" s="161"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="159"/>
       <c r="C75" s="160"/>
       <c r="D75" s="160"/>
@@ -6581,7 +6655,7 @@
       <c r="N75" s="160"/>
       <c r="O75" s="161"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="159"/>
       <c r="C76" s="160"/>
       <c r="D76" s="160"/>
@@ -6597,7 +6671,7 @@
       <c r="N76" s="160"/>
       <c r="O76" s="161"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="159"/>
       <c r="C77" s="160"/>
       <c r="D77" s="160"/>
@@ -6613,7 +6687,7 @@
       <c r="N77" s="160"/>
       <c r="O77" s="161"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="159"/>
       <c r="C78" s="160"/>
       <c r="D78" s="160"/>
@@ -6629,7 +6703,7 @@
       <c r="N78" s="160"/>
       <c r="O78" s="161"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="159"/>
       <c r="C79" s="160"/>
       <c r="D79" s="160"/>
@@ -6645,7 +6719,7 @@
       <c r="N79" s="160"/>
       <c r="O79" s="161"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="159"/>
       <c r="C80" s="160"/>
       <c r="D80" s="160"/>
@@ -6661,7 +6735,7 @@
       <c r="N80" s="160"/>
       <c r="O80" s="161"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="159"/>
       <c r="C81" s="160"/>
       <c r="D81" s="160"/>
@@ -6677,7 +6751,7 @@
       <c r="N81" s="160"/>
       <c r="O81" s="161"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="159"/>
       <c r="C82" s="160"/>
       <c r="D82" s="160"/>
@@ -6693,7 +6767,7 @@
       <c r="N82" s="160"/>
       <c r="O82" s="161"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="159"/>
       <c r="C83" s="160"/>
       <c r="D83" s="160"/>
@@ -6709,7 +6783,7 @@
       <c r="N83" s="160"/>
       <c r="O83" s="161"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="159"/>
       <c r="C84" s="160" t="s">
         <v>82</v>
@@ -6727,7 +6801,7 @@
       <c r="N84" s="160"/>
       <c r="O84" s="161"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="159"/>
       <c r="C85" s="160" t="s">
         <v>142</v>
@@ -6745,7 +6819,7 @@
       <c r="N85" s="160"/>
       <c r="O85" s="161"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="159"/>
       <c r="C86" s="160"/>
       <c r="D86" s="160"/>
@@ -6761,7 +6835,7 @@
       <c r="N86" s="160"/>
       <c r="O86" s="161"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="159"/>
       <c r="C87" s="160"/>
       <c r="D87" s="160">
@@ -6781,7 +6855,7 @@
       <c r="N87" s="160"/>
       <c r="O87" s="161"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="159"/>
       <c r="C88" s="160"/>
       <c r="D88" s="160"/>
@@ -6797,7 +6871,7 @@
       <c r="N88" s="160"/>
       <c r="O88" s="161"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="159"/>
       <c r="C89" s="160"/>
       <c r="D89" s="160"/>
@@ -6813,7 +6887,7 @@
       <c r="N89" s="160"/>
       <c r="O89" s="161"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="159"/>
       <c r="C90" s="160"/>
       <c r="D90" s="160"/>
@@ -6829,7 +6903,7 @@
       <c r="N90" s="160"/>
       <c r="O90" s="161"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="159"/>
       <c r="C91" s="160"/>
       <c r="D91" s="160"/>
@@ -6845,7 +6919,7 @@
       <c r="N91" s="160"/>
       <c r="O91" s="161"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="159"/>
       <c r="C92" s="160"/>
       <c r="D92" s="160"/>
@@ -6861,7 +6935,7 @@
       <c r="N92" s="160"/>
       <c r="O92" s="161"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="159"/>
       <c r="C93" s="160"/>
       <c r="D93" s="160"/>
@@ -6877,7 +6951,7 @@
       <c r="N93" s="160"/>
       <c r="O93" s="161"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="159"/>
       <c r="C94" s="160"/>
       <c r="D94" s="160"/>
@@ -6893,7 +6967,7 @@
       <c r="N94" s="160"/>
       <c r="O94" s="161"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="159"/>
       <c r="C95" s="160"/>
       <c r="D95" s="160"/>
@@ -6909,7 +6983,7 @@
       <c r="N95" s="160"/>
       <c r="O95" s="161"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="159"/>
       <c r="C96" s="160"/>
       <c r="D96" s="160"/>
@@ -6925,7 +6999,7 @@
       <c r="N96" s="160"/>
       <c r="O96" s="161"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:15">
       <c r="B97" s="159"/>
       <c r="C97" s="160"/>
       <c r="D97" s="160"/>
@@ -6941,7 +7015,7 @@
       <c r="N97" s="160"/>
       <c r="O97" s="161"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15">
       <c r="B98" s="159"/>
       <c r="C98" s="160"/>
       <c r="D98" s="160"/>
@@ -6957,7 +7031,7 @@
       <c r="N98" s="160"/>
       <c r="O98" s="161"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:15">
       <c r="B99" s="159"/>
       <c r="C99" s="169" t="s">
         <v>167</v>
@@ -6975,7 +7049,7 @@
       <c r="N99" s="160"/>
       <c r="O99" s="161"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15">
       <c r="B100" s="159"/>
       <c r="C100" s="160" t="s">
         <v>147</v>
@@ -6993,7 +7067,7 @@
       <c r="N100" s="160"/>
       <c r="O100" s="161"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15">
       <c r="B101" s="159"/>
       <c r="C101" s="160"/>
       <c r="D101" s="160"/>
@@ -7009,7 +7083,7 @@
       <c r="N101" s="160"/>
       <c r="O101" s="161"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15">
       <c r="B102" s="159"/>
       <c r="C102" s="160"/>
       <c r="D102" s="160"/>
@@ -7025,7 +7099,7 @@
       <c r="N102" s="160"/>
       <c r="O102" s="161"/>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15">
       <c r="B103" s="159"/>
       <c r="C103" s="160"/>
       <c r="D103" s="160"/>
@@ -7041,7 +7115,7 @@
       <c r="N103" s="160"/>
       <c r="O103" s="161"/>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15">
       <c r="B104" s="159"/>
       <c r="C104" s="160"/>
       <c r="D104" s="160"/>
@@ -7057,7 +7131,7 @@
       <c r="N104" s="160"/>
       <c r="O104" s="161"/>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15">
       <c r="B105" s="159"/>
       <c r="C105" s="160"/>
       <c r="D105" s="160"/>
@@ -7073,7 +7147,7 @@
       <c r="N105" s="160"/>
       <c r="O105" s="161"/>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15">
       <c r="B106" s="159"/>
       <c r="C106" s="160"/>
       <c r="D106" s="160"/>
@@ -7089,7 +7163,7 @@
       <c r="N106" s="160"/>
       <c r="O106" s="161"/>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15">
       <c r="B107" s="159"/>
       <c r="C107" s="160"/>
       <c r="D107" s="160"/>
@@ -7105,7 +7179,7 @@
       <c r="N107" s="160"/>
       <c r="O107" s="161"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15">
       <c r="B108" s="159"/>
       <c r="C108" s="160"/>
       <c r="D108" s="163" t="s">
@@ -7125,7 +7199,7 @@
       <c r="N108" s="160"/>
       <c r="O108" s="161"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:15">
       <c r="B109" s="159"/>
       <c r="C109" s="160" t="s">
         <v>146</v>
@@ -7147,7 +7221,7 @@
       <c r="N109" s="160"/>
       <c r="O109" s="161"/>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:15">
       <c r="B110" s="159"/>
       <c r="C110" s="160"/>
       <c r="D110" s="160"/>
@@ -7163,7 +7237,7 @@
       <c r="N110" s="160"/>
       <c r="O110" s="161"/>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:15">
       <c r="B111" s="159"/>
       <c r="C111" s="160"/>
       <c r="D111" s="160"/>
@@ -7179,7 +7253,7 @@
       <c r="N111" s="160"/>
       <c r="O111" s="161"/>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:15">
       <c r="B112" s="159"/>
       <c r="C112" s="160" t="s">
         <v>84</v>
@@ -7197,7 +7271,7 @@
       <c r="N112" s="160"/>
       <c r="O112" s="161"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:15">
       <c r="B113" s="159"/>
       <c r="C113" s="160" t="s">
         <v>150</v>
@@ -7215,7 +7289,7 @@
       <c r="N113" s="160"/>
       <c r="O113" s="161"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:15">
       <c r="B114" s="159"/>
       <c r="C114" s="160"/>
       <c r="D114" s="160"/>
@@ -7231,7 +7305,7 @@
       <c r="N114" s="160"/>
       <c r="O114" s="161"/>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15">
       <c r="B115" s="159"/>
       <c r="C115" s="160"/>
       <c r="D115" s="160">
@@ -7251,7 +7325,7 @@
       <c r="N115" s="160"/>
       <c r="O115" s="161"/>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:15">
       <c r="B116" s="159"/>
       <c r="C116" s="160" t="s">
         <v>157</v>
@@ -7273,7 +7347,7 @@
       <c r="N116" s="160"/>
       <c r="O116" s="161"/>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:15">
       <c r="B117" s="159"/>
       <c r="C117" s="160" t="s">
         <v>151</v>
@@ -7295,7 +7369,7 @@
       <c r="N117" s="160"/>
       <c r="O117" s="161"/>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:15">
       <c r="B118" s="159"/>
       <c r="C118" s="160"/>
       <c r="D118" s="160">
@@ -7314,7 +7388,7 @@
       <c r="N118" s="160"/>
       <c r="O118" s="161"/>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:15">
       <c r="B119" s="159"/>
       <c r="C119" s="160" t="s">
         <v>152</v>
@@ -7336,7 +7410,7 @@
       <c r="N119" s="160"/>
       <c r="O119" s="161"/>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:15">
       <c r="B120" s="159"/>
       <c r="C120" s="160"/>
       <c r="D120" s="160">
@@ -7355,7 +7429,7 @@
       <c r="N120" s="160"/>
       <c r="O120" s="161"/>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:15">
       <c r="B121" s="159"/>
       <c r="C121" s="160"/>
       <c r="D121" s="160"/>
@@ -7371,7 +7445,7 @@
       <c r="N121" s="160"/>
       <c r="O121" s="161"/>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:15">
       <c r="B122" s="159"/>
       <c r="C122" s="160"/>
       <c r="D122" s="160"/>
@@ -7387,7 +7461,7 @@
       <c r="N122" s="160"/>
       <c r="O122" s="161"/>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:15">
       <c r="B123" s="159"/>
       <c r="C123" s="160"/>
       <c r="D123" s="160"/>
@@ -7403,7 +7477,7 @@
       <c r="N123" s="160"/>
       <c r="O123" s="161"/>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:15">
       <c r="B124" s="159"/>
       <c r="C124" s="160"/>
       <c r="D124" s="160"/>
@@ -7419,7 +7493,7 @@
       <c r="N124" s="160"/>
       <c r="O124" s="161"/>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:15">
       <c r="B125" s="159"/>
       <c r="C125" s="160"/>
       <c r="D125" s="160"/>
@@ -7435,7 +7509,7 @@
       <c r="N125" s="160"/>
       <c r="O125" s="161"/>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:15">
       <c r="B126" s="159"/>
       <c r="C126" s="160"/>
       <c r="D126" s="160"/>
@@ -7451,7 +7525,7 @@
       <c r="N126" s="160"/>
       <c r="O126" s="161"/>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:15">
       <c r="B127" s="159"/>
       <c r="C127" s="160"/>
       <c r="D127" s="160"/>
@@ -7467,7 +7541,7 @@
       <c r="N127" s="160"/>
       <c r="O127" s="161"/>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:15">
       <c r="B128" s="159"/>
       <c r="C128" s="160"/>
       <c r="D128" s="160"/>
@@ -7483,7 +7557,7 @@
       <c r="N128" s="160"/>
       <c r="O128" s="161"/>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:15">
       <c r="B129" s="159"/>
       <c r="C129" s="160"/>
       <c r="D129" s="160"/>
@@ -7499,7 +7573,7 @@
       <c r="N129" s="160"/>
       <c r="O129" s="161"/>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:15">
       <c r="B130" s="159"/>
       <c r="C130" s="160"/>
       <c r="D130" s="160"/>
@@ -7515,7 +7589,7 @@
       <c r="N130" s="160"/>
       <c r="O130" s="161"/>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:15">
       <c r="B131" s="159"/>
       <c r="C131" s="160"/>
       <c r="D131" s="160"/>
@@ -7531,7 +7605,7 @@
       <c r="N131" s="160"/>
       <c r="O131" s="161"/>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:15">
       <c r="B132" s="159"/>
       <c r="C132" s="160"/>
       <c r="D132" s="160"/>
@@ -7547,7 +7621,7 @@
       <c r="N132" s="160"/>
       <c r="O132" s="161"/>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:15">
       <c r="B133" s="159"/>
       <c r="C133" s="160"/>
       <c r="D133" s="160"/>
@@ -7563,7 +7637,7 @@
       <c r="N133" s="160"/>
       <c r="O133" s="161"/>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:15">
       <c r="B134" s="159"/>
       <c r="C134" s="160"/>
       <c r="D134" s="160"/>
@@ -7579,7 +7653,7 @@
       <c r="N134" s="160"/>
       <c r="O134" s="161"/>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:15">
       <c r="B135" s="159"/>
       <c r="C135" s="160"/>
       <c r="D135" s="160"/>
@@ -7595,7 +7669,7 @@
       <c r="N135" s="160"/>
       <c r="O135" s="161"/>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:15">
       <c r="B136" s="159"/>
       <c r="C136" s="160"/>
       <c r="D136" s="160"/>
@@ -7611,7 +7685,7 @@
       <c r="N136" s="160"/>
       <c r="O136" s="161"/>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:15">
       <c r="B137" s="159"/>
       <c r="C137" s="160"/>
       <c r="D137" s="160"/>
@@ -7627,7 +7701,7 @@
       <c r="N137" s="160"/>
       <c r="O137" s="161"/>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:15">
       <c r="B138" s="159"/>
       <c r="C138" s="160"/>
       <c r="D138" s="160"/>
@@ -7643,7 +7717,7 @@
       <c r="N138" s="160"/>
       <c r="O138" s="161"/>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:15">
       <c r="B139" s="159"/>
       <c r="C139" s="160"/>
       <c r="D139" s="160"/>
@@ -7659,7 +7733,7 @@
       <c r="N139" s="160"/>
       <c r="O139" s="161"/>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:15">
       <c r="B140" s="159"/>
       <c r="C140" s="160"/>
       <c r="D140" s="160"/>
@@ -7675,7 +7749,7 @@
       <c r="N140" s="160"/>
       <c r="O140" s="161"/>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:15">
       <c r="B141" s="159"/>
       <c r="C141" s="160"/>
       <c r="D141" s="160"/>
@@ -7691,7 +7765,7 @@
       <c r="N141" s="160"/>
       <c r="O141" s="161"/>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:15">
       <c r="B142" s="159"/>
       <c r="C142" s="160"/>
       <c r="D142" s="160"/>
@@ -7707,7 +7781,7 @@
       <c r="N142" s="160"/>
       <c r="O142" s="161"/>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:15">
       <c r="B143" s="159"/>
       <c r="C143" s="167" t="s">
         <v>158</v>
@@ -7725,7 +7799,7 @@
       <c r="N143" s="160"/>
       <c r="O143" s="161"/>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:15">
       <c r="B144" s="159"/>
       <c r="C144" s="167" t="s">
         <v>159</v>
@@ -7743,7 +7817,7 @@
       <c r="N144" s="160"/>
       <c r="O144" s="161"/>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15">
       <c r="B145" s="159"/>
       <c r="C145" s="160"/>
       <c r="D145" s="160"/>
@@ -7759,7 +7833,7 @@
       <c r="N145" s="160"/>
       <c r="O145" s="161"/>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15">
       <c r="B146" s="159"/>
       <c r="C146" s="160"/>
       <c r="D146" s="160"/>
@@ -7775,7 +7849,7 @@
       <c r="N146" s="160"/>
       <c r="O146" s="161"/>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:15">
       <c r="B147" s="159"/>
       <c r="C147" s="160"/>
       <c r="D147" s="160"/>
@@ -7791,7 +7865,7 @@
       <c r="N147" s="160"/>
       <c r="O147" s="161"/>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:15">
       <c r="B148" s="159"/>
       <c r="C148" s="160"/>
       <c r="D148" s="160"/>
@@ -7807,7 +7881,7 @@
       <c r="N148" s="160"/>
       <c r="O148" s="161"/>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:15">
       <c r="B149" s="159"/>
       <c r="C149" s="160"/>
       <c r="D149" s="160"/>
@@ -7823,7 +7897,7 @@
       <c r="N149" s="160"/>
       <c r="O149" s="161"/>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:15">
       <c r="B150" s="159"/>
       <c r="C150" s="160"/>
       <c r="D150" s="160"/>
@@ -7839,7 +7913,7 @@
       <c r="N150" s="160"/>
       <c r="O150" s="161"/>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:15">
       <c r="B151" s="159"/>
       <c r="C151" s="160"/>
       <c r="D151" s="160"/>
@@ -7855,7 +7929,7 @@
       <c r="N151" s="160"/>
       <c r="O151" s="161"/>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:15">
       <c r="B152" s="159"/>
       <c r="C152" s="160"/>
       <c r="D152" s="160">
@@ -7875,7 +7949,7 @@
       <c r="N152" s="160"/>
       <c r="O152" s="161"/>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:15">
       <c r="B153" s="159"/>
       <c r="C153" s="160"/>
       <c r="D153" s="160">
@@ -7895,7 +7969,7 @@
       <c r="N153" s="160"/>
       <c r="O153" s="161"/>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:15">
       <c r="B154" s="159"/>
       <c r="C154" s="160"/>
       <c r="D154" s="160">
@@ -7915,7 +7989,7 @@
       <c r="N154" s="160"/>
       <c r="O154" s="161"/>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:15">
       <c r="B155" s="159"/>
       <c r="C155" s="160"/>
       <c r="D155" s="160"/>
@@ -7931,7 +8005,7 @@
       <c r="N155" s="160"/>
       <c r="O155" s="161"/>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15">
       <c r="B156" s="159"/>
       <c r="C156" s="160"/>
       <c r="D156" s="160">
@@ -7951,7 +8025,7 @@
       <c r="N156" s="160"/>
       <c r="O156" s="161"/>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:15">
       <c r="B157" s="159"/>
       <c r="C157" s="160"/>
       <c r="D157" s="160">
@@ -7971,7 +8045,7 @@
       <c r="N157" s="160"/>
       <c r="O157" s="161"/>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:15">
       <c r="B158" s="159"/>
       <c r="C158" s="160"/>
       <c r="D158" s="160"/>
@@ -7987,7 +8061,7 @@
       <c r="N158" s="160"/>
       <c r="O158" s="161"/>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:15">
       <c r="B159" s="159"/>
       <c r="C159" s="160"/>
       <c r="D159" s="160">
@@ -8007,7 +8081,7 @@
       <c r="N159" s="160"/>
       <c r="O159" s="161"/>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:15">
       <c r="B160" s="159"/>
       <c r="C160" s="160"/>
       <c r="D160" s="160">
@@ -8027,7 +8101,7 @@
       <c r="N160" s="160"/>
       <c r="O160" s="161"/>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:15">
       <c r="B161" s="159"/>
       <c r="C161" s="160"/>
       <c r="D161" s="160"/>
@@ -8043,7 +8117,7 @@
       <c r="N161" s="160"/>
       <c r="O161" s="161"/>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:15">
       <c r="B162" s="159"/>
       <c r="C162" s="160"/>
       <c r="D162" s="160"/>
@@ -8059,7 +8133,7 @@
       <c r="N162" s="160"/>
       <c r="O162" s="161"/>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:15">
       <c r="B163" s="159"/>
       <c r="C163" s="160"/>
       <c r="D163" s="160"/>
@@ -8075,7 +8149,7 @@
       <c r="N163" s="160"/>
       <c r="O163" s="161"/>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:15">
       <c r="B164" s="159"/>
       <c r="C164" s="160"/>
       <c r="D164" s="160"/>
@@ -8091,7 +8165,7 @@
       <c r="N164" s="160"/>
       <c r="O164" s="161"/>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:15">
       <c r="B165" s="159"/>
       <c r="C165" s="160"/>
       <c r="D165" s="160"/>
@@ -8107,7 +8181,7 @@
       <c r="N165" s="160"/>
       <c r="O165" s="161"/>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:15">
       <c r="B166" s="159"/>
       <c r="C166" s="160"/>
       <c r="D166" s="160"/>
@@ -8123,7 +8197,7 @@
       <c r="N166" s="160"/>
       <c r="O166" s="161"/>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:15">
       <c r="B167" s="159"/>
       <c r="C167" s="160"/>
       <c r="D167" s="160"/>
@@ -8139,7 +8213,7 @@
       <c r="N167" s="160"/>
       <c r="O167" s="161"/>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:15">
       <c r="B168" s="159"/>
       <c r="C168" s="160"/>
       <c r="D168" s="160"/>
@@ -8155,7 +8229,7 @@
       <c r="N168" s="160"/>
       <c r="O168" s="161"/>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:15">
       <c r="B169" s="159"/>
       <c r="C169" s="160"/>
       <c r="D169" s="160"/>
@@ -8171,7 +8245,7 @@
       <c r="N169" s="160"/>
       <c r="O169" s="161"/>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:15">
       <c r="B170" s="159"/>
       <c r="C170" s="160"/>
       <c r="D170" s="160"/>
@@ -8187,7 +8261,7 @@
       <c r="N170" s="160"/>
       <c r="O170" s="161"/>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:15">
       <c r="B171" s="159"/>
       <c r="C171" s="160"/>
       <c r="D171" s="160"/>
@@ -8203,7 +8277,7 @@
       <c r="N171" s="160"/>
       <c r="O171" s="161"/>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:15">
       <c r="B172" s="159"/>
       <c r="C172" s="160"/>
       <c r="D172" s="160"/>
@@ -8219,7 +8293,7 @@
       <c r="N172" s="160"/>
       <c r="O172" s="161"/>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:15">
       <c r="B173" s="159"/>
       <c r="C173" s="160"/>
       <c r="D173" s="160"/>
@@ -8235,7 +8309,7 @@
       <c r="N173" s="160"/>
       <c r="O173" s="161"/>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:15">
       <c r="B174" s="159"/>
       <c r="C174" s="160"/>
       <c r="D174" s="160"/>
@@ -8251,7 +8325,7 @@
       <c r="N174" s="160"/>
       <c r="O174" s="161"/>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:15">
       <c r="B175" s="159"/>
       <c r="C175" s="160"/>
       <c r="D175" s="160"/>
@@ -8267,7 +8341,7 @@
       <c r="N175" s="160"/>
       <c r="O175" s="161"/>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:15">
       <c r="B176" s="159"/>
       <c r="C176" s="160"/>
       <c r="D176" s="160"/>
@@ -8283,7 +8357,7 @@
       <c r="N176" s="160"/>
       <c r="O176" s="161"/>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:15">
       <c r="B177" s="159"/>
       <c r="C177" s="160"/>
       <c r="D177" s="160"/>
@@ -8299,7 +8373,7 @@
       <c r="N177" s="160"/>
       <c r="O177" s="161"/>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:15">
       <c r="B178" s="159"/>
       <c r="C178" s="160"/>
       <c r="D178" s="160"/>
